--- a/PartsListESP32Clock.xlsx
+++ b/PartsListESP32Clock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA0C843-4AF4-48C5-B9A8-34CC69E9F773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DB1BC-DC82-448F-9BD0-AF3738B2B644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="3450" windowWidth="35880" windowHeight="10545" activeTab="2" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
+    <workbookView xWindow="915" yWindow="3450" windowWidth="35880" windowHeight="10545" activeTab="1" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>https://smile.amazon.com/gp/product/B08DQQ8CBP/</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t>ring</t>
+  </si>
+  <si>
+    <t>static uint8_t const radar_idx_ring[NUM_RINGS_PER_DISK][MAX_LEDS_PER_RING] = {</t>
+  </si>
+  <si>
+    <t>}; // end radar_idx_ring[][]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </t>
   </si>
 </sst>
 </file>
@@ -292,7 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -302,8 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -877,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9251FEAC-53B0-4F8C-BA59-E6CC86FBF419}">
-  <dimension ref="A3:N29"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,67 +931,50 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f>C4/4</f>
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+C4</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <f>C5/4</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -960,19 +984,25 @@
       </c>
       <c r="I5">
         <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5+C5</f>
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <f>C6/4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -983,27 +1013,21 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>5</v>
+      <c r="I6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+C6</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <f>C7/4</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1014,22 +1038,27 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <f>POWER(2,5)*3</f>
-        <v>96</v>
+      <c r="J7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A7+C7</f>
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <f>C8/4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1040,24 +1069,22 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>3</v>
+      <c r="M8">
+        <f>POWER(2,5)*3</f>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8+C8</f>
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <f>C9/4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1067,76 +1094,95 @@
       </c>
       <c r="H9">
         <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+C9</f>
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B10">
         <f>C10/4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+C10</f>
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B11">
         <f>C11/4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A11+C11</f>
+        <v>232</v>
+      </c>
+      <c r="B12">
+        <f>C12/4</f>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+C12</f>
         <v>240</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E14">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <f>E14*D15</f>
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1144,176 +1190,171 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E21" si="0">E15*D16</f>
+        <f>E15*D16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E22" si="0">E16*D17</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D21">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="G21" t="str">
-        <f>"#define LCM_LEDS_PER_RING "&amp;E21&amp;" // they all divide into "&amp;E21&amp;" evenly (least common multiple)"</f>
+      <c r="G22" t="str">
+        <f>"#define LCM_LEDS_PER_RING "&amp;E22&amp;" // they all divide into "&amp;E22&amp;" evenly (least common multiple)"</f>
         <v>#define LCM_LEDS_PER_RING 480 // they all divide into 480 evenly (least common multiple)</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D23">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24">
         <v>60</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>48</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>40</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>32</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>24</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>16</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>12</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>8</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>1</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>60</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>108</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>148</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>180</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>204</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>220</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>232</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>240</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D25">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>15</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>12</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>6</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" location="L75" display="https://github.com/FastLED/FastLED/blob/8ac3dd7f00e933a376530ecf86d360d167e1b82a/platforms/esp/32/fastpin_esp32.h - L75" xr:uid="{49BB6DF3-ADA0-481E-B066-65592F3713AD}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{D5B9DBD2-E59C-4176-9208-D4406C37983B}"/>
+    <hyperlink ref="B1" r:id="rId1" location="L75" display="https://github.com/FastLED/FastLED/blob/8ac3dd7f00e933a376530ecf86d360d167e1b82a/platforms/esp/32/fastpin_esp32.h - L75" xr:uid="{49BB6DF3-ADA0-481E-B066-65592F3713AD}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{D5B9DBD2-E59C-4176-9208-D4406C37983B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1322,13 +1363,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DE995-FBF8-4304-AE97-4EE9DF4E65CB}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:Q38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1380,22 +1424,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>56</v>
       </c>
@@ -1426,21 +1470,51 @@
       <c r="Q20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="S20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>60</v>
+      </c>
+      <c r="V20">
+        <v>108</v>
+      </c>
+      <c r="W20">
+        <v>148</v>
+      </c>
+      <c r="X20">
+        <v>180</v>
+      </c>
+      <c r="Y20">
+        <v>204</v>
+      </c>
+      <c r="Z20">
+        <v>220</v>
+      </c>
+      <c r="AA20">
+        <v>232</v>
+      </c>
+      <c r="AB20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I21">
@@ -1471,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -1508,8 +1582,11 @@
       <c r="Q22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1554,8 +1631,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T23" t="str">
+        <f>" { "&amp;I23</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" ref="U23:AB23" si="1">" { "&amp;J23</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -1569,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:Q39" si="1">MOD(ROUND($I24*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J24:Q39" si="2">MOD(ROUND($I24*J$21/60,0),J$21)</f>
         <v>1</v>
       </c>
       <c r="K24">
@@ -1600,8 +1713,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T24" t="str">
+        <f>T23&amp;", "&amp;I24</f>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" ref="U24:AB24" si="3">U23&amp;", "&amp;J24</f>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1618,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K25">
@@ -1649,8 +1798,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T25" t="str">
+        <f t="shared" ref="T25:T83" si="4">T24&amp;", "&amp;I25</f>
+        <v xml:space="preserve"> { 0, 1, 2</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" ref="U25:U83" si="5">U24&amp;", "&amp;J25</f>
+        <v xml:space="preserve"> { 0, 1, 2</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" ref="V25:V83" si="6">V24&amp;", "&amp;K25</f>
+        <v xml:space="preserve"> { 0, 1, 1</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" ref="W25:W83" si="7">W24&amp;", "&amp;L25</f>
+        <v xml:space="preserve"> { 0, 1, 1</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" ref="X25:X83" si="8">X24&amp;", "&amp;M25</f>
+        <v xml:space="preserve"> { 0, 0, 1</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" ref="Y25:Y83" si="9">Y24&amp;", "&amp;N25</f>
+        <v xml:space="preserve"> { 0, 0, 1</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" ref="Z25:Z83" si="10">Z24&amp;", "&amp;O25</f>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" ref="AA25:AA83" si="11">AA24&amp;", "&amp;P25</f>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" ref="AB25:AB83" si="12">AB24&amp;", "&amp;Q25</f>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4</v>
       </c>
@@ -1667,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K26">
@@ -1698,8 +1883,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T26" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5</v>
       </c>
@@ -1716,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K27">
@@ -1747,8 +1968,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>6</v>
       </c>
@@ -1765,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K28">
@@ -1796,8 +2053,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T28" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>7</v>
       </c>
@@ -1814,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K29">
@@ -1845,8 +2138,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T29" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8</v>
       </c>
@@ -1863,7 +2192,7 @@
         <v>7</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K30">
@@ -1894,13 +2223,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>8</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K31">
@@ -1931,13 +2296,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>9</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K32">
@@ -1968,13 +2369,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T32" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K33">
@@ -2005,13 +2442,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T33" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I34">
         <v>11</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K34">
@@ -2042,13 +2515,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T34" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I35">
         <v>12</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K35">
@@ -2079,13 +2588,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T35" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I36">
         <v>13</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K36">
@@ -2116,13 +2661,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I37">
         <v>14</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K37">
@@ -2153,13 +2734,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T37" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I38">
         <v>15</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K38">
@@ -2190,1633 +2807,3339 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="T38" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>16</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>17</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:Q55" si="2">MOD(ROUND($I40*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J40:Q55" si="13">MOD(ROUND($I40*J$21/60,0),J$21)</f>
         <v>14</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>18</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>19</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>20</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>21</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="M44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>22</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="M45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>23</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="M46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>24</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="M47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>25</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="M48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>26</v>
       </c>
       <c r="J49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="M49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>27</v>
       </c>
       <c r="J50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="M50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>28</v>
       </c>
       <c r="J51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="M51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>29</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="M52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>30</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="M53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>31</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="M54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="AA54" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB54" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>32</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="M55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="O55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AA55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB55" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I56">
         <v>33</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J56:Q71" si="3">MOD(ROUND($I56*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J56:Q71" si="14">MOD(ROUND($I56*J$21/60,0),J$21)</f>
         <v>26</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="L56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="N56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="P56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB56" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I57">
         <v>34</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="L57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="N57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5</v>
+      </c>
+      <c r="AB57" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>35</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="L58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="N58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="P58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="AA58" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>36</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="L59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="N59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="P59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="60" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I60">
         <v>37</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="L60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="N60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="P60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AA60" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB60" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="61" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I61">
         <v>38</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="L61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="N61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="O61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="P61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB61" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>39</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="L62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="N62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="O62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="P62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB62" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I63">
         <v>40</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="L63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="N63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="P63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB63" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>41</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="L64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="N64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="O64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="P64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8</v>
+      </c>
+      <c r="AA64" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB64" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I65">
         <v>42</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="L65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="P65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="AB65" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I66">
         <v>43</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="K66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="L66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="N66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="O66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="P66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23</v>
+      </c>
+      <c r="X66" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17</v>
+      </c>
+      <c r="Y66" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="AB66" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I67">
         <v>44</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="K67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="L67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="M67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="N67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="O67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="P67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23</v>
+      </c>
+      <c r="X67" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="AB67" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I68">
         <v>45</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="K68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="M68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="N68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="O68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="P68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB68" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>46</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="K69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="M69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="O69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="P69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25</v>
+      </c>
+      <c r="X69" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18</v>
+      </c>
+      <c r="Y69" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB69" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>47</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="K70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="M70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="O70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="P70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB70" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>48</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="K71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="M71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="O71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="P71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB71" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>49</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:Q82" si="4">MOD(ROUND($I72*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J72:Q82" si="15">MOD(ROUND($I72*J$21/60,0),J$21)</f>
         <v>39</v>
       </c>
       <c r="K72">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T72" t="str">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49</v>
+      </c>
+      <c r="U72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26</v>
+      </c>
+      <c r="X72" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20</v>
+      </c>
+      <c r="Y72" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10</v>
+      </c>
+      <c r="AA72" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="AB72" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>50</v>
       </c>
       <c r="J73">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T73" t="str">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50</v>
+      </c>
+      <c r="U73" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27</v>
+      </c>
+      <c r="X73" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20</v>
+      </c>
+      <c r="Y73" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="AA73" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="AB73" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>51</v>
       </c>
       <c r="J74">
+        <f t="shared" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T74" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51</v>
+      </c>
+      <c r="U74" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34</v>
+      </c>
+      <c r="W74" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27</v>
+      </c>
+      <c r="X74" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20</v>
+      </c>
+      <c r="Y74" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10</v>
+      </c>
+      <c r="AA74" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="AB74" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>52</v>
       </c>
       <c r="J75">
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T75" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52</v>
+      </c>
+      <c r="U75" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35</v>
+      </c>
+      <c r="W75" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28</v>
+      </c>
+      <c r="X75" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21</v>
+      </c>
+      <c r="Y75" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10</v>
+      </c>
+      <c r="AA75" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB75" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>53</v>
       </c>
       <c r="J76">
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T76" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</v>
+      </c>
+      <c r="U76" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28</v>
+      </c>
+      <c r="X76" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB76" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>54</v>
       </c>
       <c r="J77">
+        <f t="shared" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T77" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54</v>
+      </c>
+      <c r="U77" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29</v>
+      </c>
+      <c r="X77" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22</v>
+      </c>
+      <c r="Y77" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB77" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>55</v>
       </c>
       <c r="J78">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T78" t="str">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</v>
+      </c>
+      <c r="U78" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37</v>
+      </c>
+      <c r="W78" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29</v>
+      </c>
+      <c r="X78" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22</v>
+      </c>
+      <c r="Y78" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB78" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>56</v>
       </c>
       <c r="J79">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T79" t="str">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56</v>
+      </c>
+      <c r="U79" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37</v>
+      </c>
+      <c r="W79" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30</v>
+      </c>
+      <c r="X79" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22</v>
+      </c>
+      <c r="Y79" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11</v>
+      </c>
+      <c r="AA79" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB79" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>57</v>
       </c>
       <c r="J80">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T80" t="str">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57</v>
+      </c>
+      <c r="U80" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38</v>
+      </c>
+      <c r="W80" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30</v>
+      </c>
+      <c r="X80" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23</v>
+      </c>
+      <c r="Y80" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>58</v>
       </c>
       <c r="J81">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T81" t="str">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="9:17" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58</v>
+      </c>
+      <c r="U81" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39</v>
+      </c>
+      <c r="W81" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31</v>
+      </c>
+      <c r="X81" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23</v>
+      </c>
+      <c r="Y81" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0</v>
+      </c>
+      <c r="AA81" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0</v>
+      </c>
+      <c r="AB81" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I82">
         <v>59</v>
       </c>
       <c r="J82">
+        <f t="shared" si="15"/>
+        <v>47</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T82" t="str">
         <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="K82">
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59</v>
+      </c>
+      <c r="U82" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39</v>
+      </c>
+      <c r="W82" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31</v>
+      </c>
+      <c r="X82" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0</v>
+      </c>
+      <c r="Y82" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0</v>
+      </c>
+      <c r="AB82" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="S83" t="s">
+        <v>58</v>
+      </c>
+      <c r="T83" t="str">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, </v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47, </v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39, </v>
+      </c>
+      <c r="W83" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31, </v>
+      </c>
+      <c r="X83" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0, </v>
+      </c>
+      <c r="Y83" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0, </v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0, </v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0, </v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </v>
+      </c>
+    </row>
+    <row r="86" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="T94" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/PartsListESP32Clock.xlsx
+++ b/PartsListESP32Clock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DB1BC-DC82-448F-9BD0-AF3738B2B644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2398B72-A5B7-45DE-B660-E9647F06D670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="3450" windowWidth="35880" windowHeight="10545" activeTab="1" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
+    <workbookView xWindow="915" yWindow="3450" windowWidth="35880" windowHeight="10545" activeTab="2" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>https://smile.amazon.com/gp/product/B08DQQ8CBP/</t>
   </si>
@@ -126,12 +126,6 @@
     <t>const uint16_t  leds_per_ring[NUM_RINGS_PER_DISK]  = { MAX_LEDS_PER_RING, 48, 40, 32, 24, 16, 12, 8, MIN_LEDS_PER_RING }; // MAX_LEDS_PER_RING = 60</t>
   </si>
   <si>
-    <t>const uint8_t   start_per_ring[NUM_RINGS_PER_DISK] = {  0, 60, 108, 148, 180, 204, 220, 232, 240 }; // which LED index is the start of each ring</t>
-  </si>
-  <si>
-    <t>const uint8_t  radar_adv_per_LED_per_ring[NUM_RINGS_PER_DISK] = { , , , , , , , , };</t>
-  </si>
-  <si>
     <t>const uint16_t  leds_per_ringqrtr[NUM_RINGS_PER_DISK]  = { 15, 12, 10, 8, 6, 4, 3, 2, 1 };</t>
   </si>
   <si>
@@ -229,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </t>
+  </si>
+  <si>
+    <t>const uint16_t   start_per_ring[NUM_RINGS_PER_DISK] = {  0, 60, 108, 148, 180, 204, 220, 232, 240 }; // which LED index is the start of each ring</t>
   </si>
 </sst>
 </file>
@@ -920,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9251FEAC-53B0-4F8C-BA59-E6CC86FBF419}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1365,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DE995-FBF8-4304-AE97-4EE9DF4E65CB}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,22 +1373,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1401,47 +1398,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1503,10 +1495,10 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>21</v>
@@ -1556,34 +1548,34 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
         <v>47</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>48</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>49</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>50</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>51</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>52</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>55</v>
-      </c>
-      <c r="S22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -6058,7 +6050,7 @@
     </row>
     <row r="83" spans="9:28" x14ac:dyDescent="0.25">
       <c r="S83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T83" t="str">
         <f t="shared" si="4"/>
@@ -6099,47 +6091,47 @@
     </row>
     <row r="86" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T93" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="9:28" x14ac:dyDescent="0.25">
       <c r="T94" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/PartsListESP32Clock.xlsx
+++ b/PartsListESP32Clock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2398B72-A5B7-45DE-B660-E9647F06D670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45BE37-014B-491A-A869-1AC4B2EDD2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="3450" windowWidth="35880" windowHeight="10545" activeTab="2" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="10545" activeTab="1" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>https://smile.amazon.com/gp/product/B08DQQ8CBP/</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>const uint16_t   start_per_ring[NUM_RINGS_PER_DISK] = {  0, 60, 108, 148, 180, 204, 220, 232, 240 }; // which LED index is the start of each ring</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>angle-sec</t>
   </si>
 </sst>
 </file>
@@ -917,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9251FEAC-53B0-4F8C-BA59-E6CC86FBF419}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1362,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DE995-FBF8-4304-AE97-4EE9DF4E65CB}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,47 +1383,149 @@
     <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <f>ROUND(5*MOD(L2,12)+(M2/12),0)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>N2*6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="0">ROUND(5*MOD(L3,12)+(M3/12),0)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="1">N3*6</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>59</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1596,31 +1710,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:Q38" si="0">MOD(ROUND($I23*K$21/60,0),K$21)</f>
+        <f t="shared" ref="K23:Q38" si="2">MOD(ROUND($I23*K$21/60,0),K$21)</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" t="str">
@@ -1628,35 +1742,35 @@
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" ref="U23:AB23" si="1">" { "&amp;J23</f>
+        <f t="shared" ref="U23:AB23" si="3">" { "&amp;J23</f>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> { 0</v>
       </c>
     </row>
@@ -1674,35 +1788,35 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:Q39" si="2">MOD(ROUND($I24*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J24:Q39" si="4">MOD(ROUND($I24*J$21/60,0),J$21)</f>
         <v>1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24" t="str">
@@ -1710,35 +1824,35 @@
         <v xml:space="preserve"> { 0, 1</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" ref="U24:AB24" si="3">U23&amp;", "&amp;J24</f>
+        <f t="shared" ref="U24:AB24" si="5">U23&amp;", "&amp;J24</f>
         <v xml:space="preserve"> { 0, 1</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 1</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 1</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 0</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 0</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 0</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 0</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> { 0, 0</v>
       </c>
     </row>
@@ -1759,71 +1873,71 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" ref="T25:T83" si="4">T24&amp;", "&amp;I25</f>
+        <f t="shared" ref="T25:T83" si="6">T24&amp;", "&amp;I25</f>
         <v xml:space="preserve"> { 0, 1, 2</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" ref="U25:U83" si="5">U24&amp;", "&amp;J25</f>
+        <f t="shared" ref="U25:U83" si="7">U24&amp;", "&amp;J25</f>
         <v xml:space="preserve"> { 0, 1, 2</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" ref="V25:V83" si="6">V24&amp;", "&amp;K25</f>
+        <f t="shared" ref="V25:V83" si="8">V24&amp;", "&amp;K25</f>
         <v xml:space="preserve"> { 0, 1, 1</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" ref="W25:W83" si="7">W24&amp;", "&amp;L25</f>
+        <f t="shared" ref="W25:W83" si="9">W24&amp;", "&amp;L25</f>
         <v xml:space="preserve"> { 0, 1, 1</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" ref="X25:X83" si="8">X24&amp;", "&amp;M25</f>
+        <f t="shared" ref="X25:X83" si="10">X24&amp;", "&amp;M25</f>
         <v xml:space="preserve"> { 0, 0, 1</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" ref="Y25:Y83" si="9">Y24&amp;", "&amp;N25</f>
+        <f t="shared" ref="Y25:Y83" si="11">Y24&amp;", "&amp;N25</f>
         <v xml:space="preserve"> { 0, 0, 1</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" ref="Z25:Z83" si="10">Z24&amp;", "&amp;O25</f>
+        <f t="shared" ref="Z25:Z83" si="12">Z24&amp;", "&amp;O25</f>
         <v xml:space="preserve"> { 0, 0, 0</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" ref="AA25:AA83" si="11">AA24&amp;", "&amp;P25</f>
+        <f t="shared" ref="AA25:AA83" si="13">AA24&amp;", "&amp;P25</f>
         <v xml:space="preserve"> { 0, 0, 0</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" ref="AB25:AB83" si="12">AB24&amp;", "&amp;Q25</f>
+        <f t="shared" ref="AB25:AB83" si="14">AB24&amp;", "&amp;Q25</f>
         <v xml:space="preserve"> { 0, 0, 0</v>
       </c>
     </row>
@@ -1844,71 +1958,71 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1929,71 +2043,71 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2014,71 +2128,71 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2099,71 +2213,71 @@
         <v>6</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2184,71 +2298,71 @@
         <v>7</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2257,71 +2371,71 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2330,71 +2444,71 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2403,71 +2517,71 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2476,71 +2590,71 @@
         <v>11</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2549,71 +2663,71 @@
         <v>12</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6</v>
       </c>
       <c r="X35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3</v>
       </c>
       <c r="Z35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2</v>
       </c>
       <c r="AB35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2622,71 +2736,71 @@
         <v>13</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7</v>
       </c>
       <c r="X36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3</v>
       </c>
       <c r="Z36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2</v>
       </c>
       <c r="AB36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2695,71 +2809,71 @@
         <v>14</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7</v>
       </c>
       <c r="X37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2768,71 +2882,71 @@
         <v>15</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8</v>
       </c>
       <c r="X38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2841,71 +2955,71 @@
         <v>16</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9</v>
       </c>
       <c r="X39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4</v>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2914,71 +3028,71 @@
         <v>17</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:Q55" si="13">MOD(ROUND($I40*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J40:Q55" si="15">MOD(ROUND($I40*J$21/60,0),J$21)</f>
         <v>14</v>
       </c>
       <c r="K40">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AA40" t="str">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9</v>
-      </c>
-      <c r="X40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7</v>
-      </c>
-      <c r="Y40" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5</v>
-      </c>
-      <c r="Z40" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
-      </c>
-      <c r="AA40" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2987,71 +3101,71 @@
         <v>18</v>
       </c>
       <c r="J41">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="AA41" t="str">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12</v>
-      </c>
-      <c r="W41" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10</v>
-      </c>
-      <c r="X41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="Y41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="Z41" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4</v>
-      </c>
-      <c r="AA41" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3060,71 +3174,71 @@
         <v>19</v>
       </c>
       <c r="J42">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="AA42" t="str">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10</v>
-      </c>
-      <c r="X42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8</v>
-      </c>
-      <c r="Y42" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5</v>
-      </c>
-      <c r="Z42" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4</v>
-      </c>
-      <c r="AA42" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3133,71 +3247,71 @@
         <v>20</v>
       </c>
       <c r="J43">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="AA43" t="str">
         <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11</v>
-      </c>
-      <c r="X43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8</v>
-      </c>
-      <c r="Y43" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5</v>
-      </c>
-      <c r="Z43" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4</v>
-      </c>
-      <c r="AA43" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3206,71 +3320,71 @@
         <v>21</v>
       </c>
       <c r="J44">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
+      </c>
+      <c r="AA44" t="str">
         <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17</v>
-      </c>
-      <c r="V44" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14</v>
-      </c>
-      <c r="W44" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11</v>
-      </c>
-      <c r="X44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8</v>
-      </c>
-      <c r="Y44" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6</v>
-      </c>
-      <c r="Z44" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
-      </c>
-      <c r="AA44" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3</v>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3279,71 +3393,71 @@
         <v>22</v>
       </c>
       <c r="J45">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AA45" t="str">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22</v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18</v>
-      </c>
-      <c r="V45" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15</v>
-      </c>
-      <c r="W45" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12</v>
-      </c>
-      <c r="X45" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9</v>
-      </c>
-      <c r="Y45" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6</v>
-      </c>
-      <c r="Z45" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
-      </c>
-      <c r="AA45" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3352,71 +3466,71 @@
         <v>23</v>
       </c>
       <c r="J46">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5</v>
+      </c>
+      <c r="AA46" t="str">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23</v>
-      </c>
-      <c r="U46" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15</v>
-      </c>
-      <c r="W46" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12</v>
-      </c>
-      <c r="X46" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9</v>
-      </c>
-      <c r="Y46" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="Z46" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5</v>
-      </c>
-      <c r="AA46" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3425,71 +3539,71 @@
         <v>24</v>
       </c>
       <c r="J47">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="AA47" t="str">
         <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24</v>
-      </c>
-      <c r="U47" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16</v>
-      </c>
-      <c r="W47" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13</v>
-      </c>
-      <c r="X47" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10</v>
-      </c>
-      <c r="Y47" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6</v>
-      </c>
-      <c r="Z47" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="AA47" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3</v>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3498,71 +3612,71 @@
         <v>25</v>
       </c>
       <c r="J48">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="AA48" t="str">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25</v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17</v>
-      </c>
-      <c r="W48" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13</v>
-      </c>
-      <c r="X48" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10</v>
-      </c>
-      <c r="Y48" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7</v>
-      </c>
-      <c r="Z48" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5</v>
-      </c>
-      <c r="AA48" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3</v>
       </c>
       <c r="AB48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3571,71 +3685,71 @@
         <v>26</v>
       </c>
       <c r="J49">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="AA49" t="str">
         <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26</v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17</v>
-      </c>
-      <c r="W49" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14</v>
-      </c>
-      <c r="X49" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10</v>
-      </c>
-      <c r="Y49" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="Z49" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
-      </c>
-      <c r="AA49" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3</v>
       </c>
       <c r="AB49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3644,71 +3758,71 @@
         <v>27</v>
       </c>
       <c r="J50">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AA50" t="str">
         <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27</v>
-      </c>
-      <c r="U50" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18</v>
-      </c>
-      <c r="W50" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14</v>
-      </c>
-      <c r="X50" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11</v>
-      </c>
-      <c r="Y50" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7</v>
-      </c>
-      <c r="Z50" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AA50" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4</v>
       </c>
       <c r="AB50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3717,71 +3831,71 @@
         <v>28</v>
       </c>
       <c r="J51">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="AA51" t="str">
         <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28</v>
-      </c>
-      <c r="U51" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19</v>
-      </c>
-      <c r="W51" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15</v>
-      </c>
-      <c r="X51" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11</v>
-      </c>
-      <c r="Y51" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7</v>
-      </c>
-      <c r="Z51" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6</v>
-      </c>
-      <c r="AA51" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3790,71 +3904,71 @@
         <v>29</v>
       </c>
       <c r="J52">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="AA52" t="str">
         <f t="shared" si="13"/>
-        <v>23</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19</v>
-      </c>
-      <c r="W52" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15</v>
-      </c>
-      <c r="X52" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12</v>
-      </c>
-      <c r="Y52" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8</v>
-      </c>
-      <c r="Z52" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6</v>
-      </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3863,71 +3977,71 @@
         <v>30</v>
       </c>
       <c r="J53">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="AA53" t="str">
         <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30</v>
-      </c>
-      <c r="U53" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24</v>
-      </c>
-      <c r="V53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20</v>
-      </c>
-      <c r="W53" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16</v>
-      </c>
-      <c r="X53" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12</v>
-      </c>
-      <c r="Y53" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8</v>
-      </c>
-      <c r="Z53" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="AA53" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3936,71 +4050,71 @@
         <v>31</v>
       </c>
       <c r="J54">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="AA54" t="str">
         <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31</v>
-      </c>
-      <c r="U54" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21</v>
-      </c>
-      <c r="W54" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17</v>
-      </c>
-      <c r="X54" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12</v>
-      </c>
-      <c r="Y54" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8</v>
-      </c>
-      <c r="Z54" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
-      </c>
-      <c r="AA54" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4009,71 +4123,71 @@
         <v>32</v>
       </c>
       <c r="J55">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AA55" t="str">
         <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</v>
-      </c>
-      <c r="U55" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26</v>
-      </c>
-      <c r="V55" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21</v>
-      </c>
-      <c r="W55" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17</v>
-      </c>
-      <c r="X55" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13</v>
-      </c>
-      <c r="Y55" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9</v>
-      </c>
-      <c r="Z55" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AA55" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4082,71 +4196,71 @@
         <v>33</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J56:Q71" si="14">MOD(ROUND($I56*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J56:Q71" si="16">MOD(ROUND($I56*J$21/60,0),J$21)</f>
         <v>26</v>
       </c>
       <c r="K56">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB56" t="str">
         <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T56" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33</v>
-      </c>
-      <c r="U56" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22</v>
-      </c>
-      <c r="W56" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18</v>
-      </c>
-      <c r="X56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13</v>
-      </c>
-      <c r="Y56" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9</v>
-      </c>
-      <c r="Z56" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7</v>
-      </c>
-      <c r="AA56" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4</v>
-      </c>
-      <c r="AB56" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4155,71 +4269,71 @@
         <v>34</v>
       </c>
       <c r="J57">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5</v>
+      </c>
+      <c r="AB57" t="str">
         <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T57" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34</v>
-      </c>
-      <c r="U57" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23</v>
-      </c>
-      <c r="W57" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18</v>
-      </c>
-      <c r="X57" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14</v>
-      </c>
-      <c r="Y57" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9</v>
-      </c>
-      <c r="Z57" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="AA57" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5</v>
-      </c>
-      <c r="AB57" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4228,71 +4342,71 @@
         <v>35</v>
       </c>
       <c r="J58">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="AA58" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="AB58" t="str">
         <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35</v>
-      </c>
-      <c r="U58" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23</v>
-      </c>
-      <c r="W58" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19</v>
-      </c>
-      <c r="X58" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14</v>
-      </c>
-      <c r="Y58" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9</v>
-      </c>
-      <c r="Z58" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7</v>
-      </c>
-      <c r="AA58" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="AB58" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4301,71 +4415,71 @@
         <v>36</v>
       </c>
       <c r="J59">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="AB59" t="str">
         <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T59" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36</v>
-      </c>
-      <c r="U59" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19</v>
-      </c>
-      <c r="X59" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14</v>
-      </c>
-      <c r="Y59" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10</v>
-      </c>
-      <c r="Z59" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
-      </c>
-      <c r="AA59" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5</v>
-      </c>
-      <c r="AB59" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4374,71 +4488,71 @@
         <v>37</v>
       </c>
       <c r="J60">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AA60" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB60" t="str">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T60" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37</v>
-      </c>
-      <c r="U60" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20</v>
-      </c>
-      <c r="X60" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15</v>
-      </c>
-      <c r="Y60" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10</v>
-      </c>
-      <c r="Z60" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
-      </c>
-      <c r="AA60" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB60" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4447,71 +4561,71 @@
         <v>38</v>
       </c>
       <c r="J61">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB61" t="str">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T61" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38</v>
-      </c>
-      <c r="U61" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25</v>
-      </c>
-      <c r="W61" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20</v>
-      </c>
-      <c r="X61" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15</v>
-      </c>
-      <c r="Y61" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10</v>
-      </c>
-      <c r="Z61" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8</v>
-      </c>
-      <c r="AA61" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB61" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4520,71 +4634,71 @@
         <v>39</v>
       </c>
       <c r="J62">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB62" t="str">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="14"/>
-        <v>26</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39</v>
-      </c>
-      <c r="U62" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26</v>
-      </c>
-      <c r="W62" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21</v>
-      </c>
-      <c r="X62" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16</v>
-      </c>
-      <c r="Y62" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10</v>
-      </c>
-      <c r="Z62" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8</v>
-      </c>
-      <c r="AA62" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB62" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4593,71 +4707,71 @@
         <v>40</v>
       </c>
       <c r="J63">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB63" t="str">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T63" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40</v>
-      </c>
-      <c r="U63" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27</v>
-      </c>
-      <c r="W63" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21</v>
-      </c>
-      <c r="X63" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16</v>
-      </c>
-      <c r="Y63" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11</v>
-      </c>
-      <c r="Z63" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8</v>
-      </c>
-      <c r="AA63" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB63" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4666,71 +4780,71 @@
         <v>41</v>
       </c>
       <c r="J64">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8</v>
+      </c>
+      <c r="AA64" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB64" t="str">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T64" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41</v>
-      </c>
-      <c r="U64" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33</v>
-      </c>
-      <c r="V64" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27</v>
-      </c>
-      <c r="W64" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22</v>
-      </c>
-      <c r="X64" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16</v>
-      </c>
-      <c r="Y64" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11</v>
-      </c>
-      <c r="Z64" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8</v>
-      </c>
-      <c r="AA64" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB64" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4739,71 +4853,71 @@
         <v>42</v>
       </c>
       <c r="J65">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="AB65" t="str">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42</v>
-      </c>
-      <c r="U65" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28</v>
-      </c>
-      <c r="W65" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22</v>
-      </c>
-      <c r="X65" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17</v>
-      </c>
-      <c r="Y65" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11</v>
-      </c>
-      <c r="Z65" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8</v>
-      </c>
-      <c r="AA65" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6</v>
-      </c>
-      <c r="AB65" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4812,71 +4926,71 @@
         <v>43</v>
       </c>
       <c r="J66">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23</v>
+      </c>
+      <c r="X66" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17</v>
+      </c>
+      <c r="Y66" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="AB66" t="str">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T66" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43</v>
-      </c>
-      <c r="U66" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34</v>
-      </c>
-      <c r="V66" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29</v>
-      </c>
-      <c r="W66" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23</v>
-      </c>
-      <c r="X66" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17</v>
-      </c>
-      <c r="Y66" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11</v>
-      </c>
-      <c r="Z66" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9</v>
-      </c>
-      <c r="AA66" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6</v>
-      </c>
-      <c r="AB66" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4885,71 +4999,71 @@
         <v>44</v>
       </c>
       <c r="J67">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23</v>
+      </c>
+      <c r="X67" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="AB67" t="str">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T67" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44</v>
-      </c>
-      <c r="U67" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35</v>
-      </c>
-      <c r="V67" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29</v>
-      </c>
-      <c r="W67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23</v>
-      </c>
-      <c r="X67" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18</v>
-      </c>
-      <c r="Y67" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12</v>
-      </c>
-      <c r="Z67" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9</v>
-      </c>
-      <c r="AA67" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="AB67" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -4958,71 +5072,71 @@
         <v>45</v>
       </c>
       <c r="J68">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB68" t="str">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T68" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45</v>
-      </c>
-      <c r="U68" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36</v>
-      </c>
-      <c r="V68" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30</v>
-      </c>
-      <c r="W68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24</v>
-      </c>
-      <c r="X68" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18</v>
-      </c>
-      <c r="Y68" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12</v>
-      </c>
-      <c r="Z68" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9</v>
-      </c>
-      <c r="AA68" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB68" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5031,71 +5145,71 @@
         <v>46</v>
       </c>
       <c r="J69">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25</v>
+      </c>
+      <c r="X69" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18</v>
+      </c>
+      <c r="Y69" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB69" t="str">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T69" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</v>
-      </c>
-      <c r="U69" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37</v>
-      </c>
-      <c r="V69" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31</v>
-      </c>
-      <c r="W69" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25</v>
-      </c>
-      <c r="X69" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18</v>
-      </c>
-      <c r="Y69" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12</v>
-      </c>
-      <c r="Z69" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9</v>
-      </c>
-      <c r="AA69" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB69" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5104,71 +5218,71 @@
         <v>47</v>
       </c>
       <c r="J70">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB70" t="str">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T70" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47</v>
-      </c>
-      <c r="U70" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38</v>
-      </c>
-      <c r="V70" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31</v>
-      </c>
-      <c r="W70" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25</v>
-      </c>
-      <c r="X70" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19</v>
-      </c>
-      <c r="Y70" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13</v>
-      </c>
-      <c r="Z70" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9</v>
-      </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5177,71 +5291,71 @@
         <v>48</v>
       </c>
       <c r="J71">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB71" t="str">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="14"/>
-        <v>26</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48</v>
-      </c>
-      <c r="U71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38</v>
-      </c>
-      <c r="V71" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32</v>
-      </c>
-      <c r="W71" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26</v>
-      </c>
-      <c r="X71" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19</v>
-      </c>
-      <c r="Y71" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13</v>
-      </c>
-      <c r="Z71" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10</v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB71" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5250,71 +5364,71 @@
         <v>49</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:Q82" si="15">MOD(ROUND($I72*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J72:Q82" si="17">MOD(ROUND($I72*J$21/60,0),J$21)</f>
         <v>39</v>
       </c>
       <c r="K72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="L72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="M72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="N72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="O72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="P72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26</v>
       </c>
       <c r="X72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20</v>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10</v>
       </c>
       <c r="AA72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5323,71 +5437,71 @@
         <v>50</v>
       </c>
       <c r="J73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="K73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="L73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="M73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="N73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="O73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="P73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27</v>
       </c>
       <c r="X73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10</v>
       </c>
       <c r="AA73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5396,71 +5510,71 @@
         <v>51</v>
       </c>
       <c r="J74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="K74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="L74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="M74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="N74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="O74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="P74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27</v>
       </c>
       <c r="X74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10</v>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5469,71 +5583,71 @@
         <v>52</v>
       </c>
       <c r="J75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="K75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="L75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="M75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="N75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="O75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="P75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42</v>
       </c>
       <c r="V75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28</v>
       </c>
       <c r="X75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21</v>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10</v>
       </c>
       <c r="AA75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5542,71 +5656,71 @@
         <v>53</v>
       </c>
       <c r="J76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="K76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="L76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="M76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="N76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="O76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="P76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28</v>
       </c>
       <c r="X76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21</v>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5615,71 +5729,71 @@
         <v>54</v>
       </c>
       <c r="J77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="K77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="L77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="M77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="N77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="O77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="P77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43</v>
       </c>
       <c r="V77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29</v>
       </c>
       <c r="X77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22</v>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5688,71 +5802,71 @@
         <v>55</v>
       </c>
       <c r="J78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="K78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="L78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="M78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="N78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="O78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="P78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44</v>
       </c>
       <c r="V78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29</v>
       </c>
       <c r="X78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22</v>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5761,71 +5875,71 @@
         <v>56</v>
       </c>
       <c r="J79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="K79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="L79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="M79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="N79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="O79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="P79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45</v>
       </c>
       <c r="V79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30</v>
       </c>
       <c r="X79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22</v>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11</v>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5834,71 +5948,71 @@
         <v>57</v>
       </c>
       <c r="J80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="K80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="L80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="M80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="N80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="O80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="P80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46</v>
       </c>
       <c r="V80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38</v>
       </c>
       <c r="W80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30</v>
       </c>
       <c r="X80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23</v>
       </c>
       <c r="Y80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0</v>
       </c>
       <c r="AB80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5907,71 +6021,71 @@
         <v>58</v>
       </c>
       <c r="J81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="K81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="L81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="M81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="N81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="O81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46</v>
       </c>
       <c r="V81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39</v>
       </c>
       <c r="W81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31</v>
       </c>
       <c r="X81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23</v>
       </c>
       <c r="Y81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -5980,71 +6094,71 @@
         <v>59</v>
       </c>
       <c r="J82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="K82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="L82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="M82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59</v>
       </c>
       <c r="U82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47</v>
       </c>
       <c r="V82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39</v>
       </c>
       <c r="W82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31</v>
       </c>
       <c r="X82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0</v>
       </c>
       <c r="Y82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -6053,39 +6167,39 @@
         <v>56</v>
       </c>
       <c r="T83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, </v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47, </v>
       </c>
       <c r="V83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39, </v>
       </c>
       <c r="W83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31, </v>
       </c>
       <c r="X83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0, </v>
       </c>
       <c r="Y83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0, </v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0, </v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0, </v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </v>
       </c>
     </row>

--- a/PartsListESP32Clock.xlsx
+++ b/PartsListESP32Clock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45BE37-014B-491A-A869-1AC4B2EDD2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C8D87-BF09-47F1-AA94-6AE6AB58D821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="10545" activeTab="1" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>https://smile.amazon.com/gp/product/B08DQQ8CBP/</t>
   </si>
@@ -198,33 +198,6 @@
     <t>}; // end radar_idx_ring[][]</t>
   </si>
   <si>
-    <t xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </t>
-  </si>
-  <si>
     <t>const uint16_t   start_per_ring[NUM_RINGS_PER_DISK] = {  0, 60, 108, 148, 180, 204, 220, 232, 240 }; // which LED index is the start of each ring</t>
   </si>
   <si>
@@ -238,6 +211,36 @@
   </si>
   <si>
     <t>angle-sec</t>
+  </si>
+  <si>
+    <t>delay by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 },</t>
   </si>
 </sst>
 </file>
@@ -338,12 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -353,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -703,10 +706,10 @@
         <f>"| "&amp;A1&amp;" | "&amp;B1&amp;" | "&amp;C1&amp;" | "&amp;D1&amp;" | "&amp;E1&amp;" |"</f>
         <v>| Num | CostEach | CostTotal | Description | Source |</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -929,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9251FEAC-53B0-4F8C-BA59-E6CC86FBF419}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -941,16 +944,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -964,22 +967,22 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <f>C5/4</f>
+        <f t="shared" ref="B5:B12" si="0">C5/4</f>
         <v>15</v>
       </c>
       <c r="C5">
@@ -1000,11 +1003,11 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+C5</f>
+        <f t="shared" ref="A6:A13" si="1">A5+C5</f>
         <v>60</v>
       </c>
       <c r="B6">
-        <f>C6/4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C6">
@@ -1028,11 +1031,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+C6</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B7">
-        <f>C7/4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C7">
@@ -1053,11 +1056,11 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+C7</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="B8">
-        <f>C8/4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8">
@@ -1085,11 +1088,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+C8</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="B9">
-        <f>C9/4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9">
@@ -1110,11 +1113,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+C9</f>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="B10">
-        <f>C10/4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10">
@@ -1135,11 +1138,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+C10</f>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="B11">
-        <f>C11/4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11">
@@ -1157,11 +1160,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+C11</f>
+        <f t="shared" si="1"/>
         <v>232</v>
       </c>
       <c r="B12">
-        <f>C12/4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12">
@@ -1179,7 +1182,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+C12</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="B13">
@@ -1208,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E22" si="0">E16*D17</f>
+        <f t="shared" ref="E17:E22" si="2">E16*D17</f>
         <v>4</v>
       </c>
     </row>
@@ -1217,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -1226,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -1235,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -1244,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
     </row>
@@ -1253,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="G22" t="str">
@@ -1372,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DE995-FBF8-4304-AE97-4EE9DF4E65CB}">
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="T161" sqref="T161:T169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,16 +1391,16 @@
         <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1517,7 +1520,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1608,19 +1611,19 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I21">
@@ -1687,9 +1690,6 @@
       </c>
       <c r="Q22" t="s">
         <v>53</v>
-      </c>
-      <c r="S22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -1737,42 +1737,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23" t="str">
-        <f>" { "&amp;I23</f>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" ref="U23:AB23" si="3">" { "&amp;J23</f>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="Z23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> { 0</v>
-      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -1788,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:Q39" si="4">MOD(ROUND($I24*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J24:Q39" si="3">MOD(ROUND($I24*J$21/60,0),J$21)</f>
         <v>1</v>
       </c>
       <c r="K24">
@@ -1818,42 +1782,6 @@
       <c r="Q24">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T24" t="str">
-        <f>T23&amp;", "&amp;I24</f>
-        <v xml:space="preserve"> { 0, 1</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" ref="U24:AB24" si="5">U23&amp;", "&amp;J24</f>
-        <v xml:space="preserve"> { 0, 1</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1</v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 1</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 0</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 0</v>
-      </c>
-      <c r="Z24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 0</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 0</v>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> { 0, 0</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -1873,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K25">
@@ -1903,42 +1831,6 @@
       <c r="Q25">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" ref="T25:T83" si="6">T24&amp;", "&amp;I25</f>
-        <v xml:space="preserve"> { 0, 1, 2</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" ref="U25:U83" si="7">U24&amp;", "&amp;J25</f>
-        <v xml:space="preserve"> { 0, 1, 2</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" ref="V25:V83" si="8">V24&amp;", "&amp;K25</f>
-        <v xml:space="preserve"> { 0, 1, 1</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" ref="W25:W83" si="9">W24&amp;", "&amp;L25</f>
-        <v xml:space="preserve"> { 0, 1, 1</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" ref="X25:X83" si="10">X24&amp;", "&amp;M25</f>
-        <v xml:space="preserve"> { 0, 0, 1</v>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" ref="Y25:Y83" si="11">Y24&amp;", "&amp;N25</f>
-        <v xml:space="preserve"> { 0, 0, 1</v>
-      </c>
-      <c r="Z25" t="str">
-        <f t="shared" ref="Z25:Z83" si="12">Z24&amp;", "&amp;O25</f>
-        <v xml:space="preserve"> { 0, 0, 0</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" ref="AA25:AA83" si="13">AA24&amp;", "&amp;P25</f>
-        <v xml:space="preserve"> { 0, 0, 0</v>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" ref="AB25:AB83" si="14">AB24&amp;", "&amp;Q25</f>
-        <v xml:space="preserve"> { 0, 0, 0</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -1958,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K26">
@@ -1988,42 +1880,6 @@
       <c r="Q26">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2</v>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1</v>
-      </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1</v>
-      </c>
-      <c r="Z26" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1</v>
-      </c>
-      <c r="AA26" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0</v>
-      </c>
-      <c r="AB26" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -2043,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K27">
@@ -2073,42 +1929,6 @@
       <c r="Q27">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2</v>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2</v>
-      </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1</v>
-      </c>
-      <c r="Z27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1</v>
-      </c>
-      <c r="AA27" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1</v>
-      </c>
-      <c r="AB27" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -2128,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K28">
@@ -2158,42 +1978,6 @@
       <c r="Q28">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3</v>
-      </c>
-      <c r="X28" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2</v>
-      </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1</v>
-      </c>
-      <c r="Z28" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1</v>
-      </c>
-      <c r="AA28" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1</v>
-      </c>
-      <c r="AB28" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -2213,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K29">
@@ -2243,42 +2027,6 @@
       <c r="Q29">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4</v>
-      </c>
-      <c r="W29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3</v>
-      </c>
-      <c r="X29" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2</v>
-      </c>
-      <c r="Y29" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2</v>
-      </c>
-      <c r="Z29" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1</v>
-      </c>
-      <c r="AA29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1</v>
-      </c>
-      <c r="AB29" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -2298,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K30">
@@ -2328,42 +2076,6 @@
       <c r="Q30">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4</v>
-      </c>
-      <c r="X30" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2</v>
-      </c>
-      <c r="Z30" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="AA30" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1</v>
-      </c>
-      <c r="AB30" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -2371,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K31">
@@ -2401,42 +2113,6 @@
       <c r="Q31">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5</v>
-      </c>
-      <c r="W31" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4</v>
-      </c>
-      <c r="X31" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3</v>
-      </c>
-      <c r="Y31" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2</v>
-      </c>
-      <c r="Z31" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2</v>
-      </c>
-      <c r="AA31" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="AB31" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -2444,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K32">
@@ -2475,49 +2151,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5</v>
-      </c>
-      <c r="X32" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4</v>
-      </c>
-      <c r="Y32" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2</v>
-      </c>
-      <c r="Z32" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2</v>
-      </c>
-      <c r="AA32" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="AB32" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="33" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K33">
@@ -2548,49 +2188,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T33" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5</v>
-      </c>
-      <c r="X33" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4</v>
-      </c>
-      <c r="Y33" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3</v>
-      </c>
-      <c r="Z33" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2</v>
-      </c>
-      <c r="AA33" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="AB33" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I34">
         <v>11</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K34">
@@ -2621,49 +2225,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T34" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6</v>
-      </c>
-      <c r="X34" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4</v>
-      </c>
-      <c r="Y34" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3</v>
-      </c>
-      <c r="Z34" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
-      </c>
-      <c r="AA34" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="AB34" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="35" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I35">
         <v>12</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K35">
@@ -2694,49 +2262,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T35" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8</v>
-      </c>
-      <c r="W35" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6</v>
-      </c>
-      <c r="X35" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5</v>
-      </c>
-      <c r="Y35" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3</v>
-      </c>
-      <c r="Z35" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
-      </c>
-      <c r="AA35" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2</v>
-      </c>
-      <c r="AB35" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="36" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I36">
         <v>13</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K36">
@@ -2767,49 +2299,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T36" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13</v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10</v>
-      </c>
-      <c r="V36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9</v>
-      </c>
-      <c r="W36" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7</v>
-      </c>
-      <c r="X36" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="Y36" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3</v>
-      </c>
-      <c r="Z36" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3</v>
-      </c>
-      <c r="AA36" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2</v>
-      </c>
-      <c r="AB36" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="37" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I37">
         <v>14</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K37">
@@ -2840,49 +2336,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14</v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7</v>
-      </c>
-      <c r="X37" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6</v>
-      </c>
-      <c r="Y37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4</v>
-      </c>
-      <c r="Z37" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3</v>
-      </c>
-      <c r="AA37" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2</v>
-      </c>
-      <c r="AB37" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I38">
         <v>15</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K38">
@@ -2913,3339 +2373,5689 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8</v>
-      </c>
-      <c r="X38" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6</v>
-      </c>
-      <c r="Y38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4</v>
-      </c>
-      <c r="Z38" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3</v>
-      </c>
-      <c r="AA38" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
-      </c>
-      <c r="AB38" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="39" spans="9:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>16</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="P39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11</v>
-      </c>
-      <c r="W39" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9</v>
-      </c>
-      <c r="X39" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="Y39" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4</v>
-      </c>
-      <c r="Z39" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
-      </c>
-      <c r="AA39" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
-      </c>
-      <c r="AB39" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>17</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:Q55" si="15">MOD(ROUND($I40*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J40:Q55" si="4">MOD(ROUND($I40*J$21/60,0),J$21)</f>
         <v>14</v>
       </c>
       <c r="K40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="L40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="N40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9</v>
-      </c>
-      <c r="X40" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7</v>
-      </c>
-      <c r="Y40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5</v>
-      </c>
-      <c r="Z40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
-      </c>
-      <c r="AA40" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2</v>
-      </c>
-      <c r="AB40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>18</v>
       </c>
       <c r="J41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="K41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="L41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="N41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12</v>
-      </c>
-      <c r="W41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10</v>
-      </c>
-      <c r="X41" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="Y41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="Z41" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4</v>
-      </c>
-      <c r="AA41" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2</v>
-      </c>
-      <c r="AB41" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>19</v>
       </c>
       <c r="J42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="K42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10</v>
-      </c>
-      <c r="X42" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8</v>
-      </c>
-      <c r="Y42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5</v>
-      </c>
-      <c r="Z42" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4</v>
-      </c>
-      <c r="AA42" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3</v>
-      </c>
-      <c r="AB42" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>20</v>
       </c>
       <c r="J43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11</v>
-      </c>
-      <c r="X43" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8</v>
-      </c>
-      <c r="Y43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5</v>
-      </c>
-      <c r="Z43" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4</v>
-      </c>
-      <c r="AA43" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3</v>
-      </c>
-      <c r="AB43" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="44" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>21</v>
       </c>
       <c r="J44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="K44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17</v>
-      </c>
-      <c r="V44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14</v>
-      </c>
-      <c r="W44" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11</v>
-      </c>
-      <c r="X44" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8</v>
-      </c>
-      <c r="Y44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6</v>
-      </c>
-      <c r="Z44" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
-      </c>
-      <c r="AA44" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3</v>
-      </c>
-      <c r="AB44" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="45" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>22</v>
       </c>
       <c r="J45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="K45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="L45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22</v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18</v>
-      </c>
-      <c r="V45" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15</v>
-      </c>
-      <c r="W45" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12</v>
-      </c>
-      <c r="X45" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9</v>
-      </c>
-      <c r="Y45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6</v>
-      </c>
-      <c r="Z45" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
-      </c>
-      <c r="AA45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
-      </c>
-      <c r="AB45" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="46" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>23</v>
       </c>
       <c r="J46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="K46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="L46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23</v>
-      </c>
-      <c r="U46" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15</v>
-      </c>
-      <c r="W46" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12</v>
-      </c>
-      <c r="X46" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9</v>
-      </c>
-      <c r="Y46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="Z46" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5</v>
-      </c>
-      <c r="AA46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
-      </c>
-      <c r="AB46" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>24</v>
       </c>
       <c r="J47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="N47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24</v>
-      </c>
-      <c r="U47" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16</v>
-      </c>
-      <c r="W47" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13</v>
-      </c>
-      <c r="X47" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10</v>
-      </c>
-      <c r="Y47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6</v>
-      </c>
-      <c r="Z47" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="AA47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3</v>
-      </c>
-      <c r="AB47" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="48" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>25</v>
       </c>
       <c r="J48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="N48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25</v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17</v>
-      </c>
-      <c r="W48" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13</v>
-      </c>
-      <c r="X48" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10</v>
-      </c>
-      <c r="Y48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7</v>
-      </c>
-      <c r="Z48" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5</v>
-      </c>
-      <c r="AA48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3</v>
-      </c>
-      <c r="AB48" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>26</v>
       </c>
       <c r="J49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="K49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="N49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26</v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17</v>
-      </c>
-      <c r="W49" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14</v>
-      </c>
-      <c r="X49" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10</v>
-      </c>
-      <c r="Y49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="Z49" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
-      </c>
-      <c r="AA49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3</v>
-      </c>
-      <c r="AB49" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>27</v>
       </c>
       <c r="J50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="N50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27</v>
-      </c>
-      <c r="U50" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18</v>
-      </c>
-      <c r="W50" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14</v>
-      </c>
-      <c r="X50" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11</v>
-      </c>
-      <c r="Y50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7</v>
-      </c>
-      <c r="Z50" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AA50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4</v>
-      </c>
-      <c r="AB50" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>28</v>
       </c>
       <c r="J51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="M51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="N51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28</v>
-      </c>
-      <c r="U51" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19</v>
-      </c>
-      <c r="W51" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15</v>
-      </c>
-      <c r="X51" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11</v>
-      </c>
-      <c r="Y51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7</v>
-      </c>
-      <c r="Z51" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6</v>
-      </c>
-      <c r="AA51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4</v>
-      </c>
-      <c r="AB51" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>29</v>
       </c>
       <c r="J52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="K52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="M52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19</v>
-      </c>
-      <c r="W52" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15</v>
-      </c>
-      <c r="X52" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12</v>
-      </c>
-      <c r="Y52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8</v>
-      </c>
-      <c r="Z52" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6</v>
-      </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4</v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>30</v>
       </c>
       <c r="J53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30</v>
-      </c>
-      <c r="U53" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24</v>
-      </c>
-      <c r="V53" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20</v>
-      </c>
-      <c r="W53" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16</v>
-      </c>
-      <c r="X53" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12</v>
-      </c>
-      <c r="Y53" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8</v>
-      </c>
-      <c r="Z53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="AA53" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
-      </c>
-      <c r="AB53" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>31</v>
       </c>
       <c r="J54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="K54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="L54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31</v>
-      </c>
-      <c r="U54" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21</v>
-      </c>
-      <c r="W54" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17</v>
-      </c>
-      <c r="X54" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12</v>
-      </c>
-      <c r="Y54" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8</v>
-      </c>
-      <c r="Z54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
-      </c>
-      <c r="AA54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
-      </c>
-      <c r="AB54" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>32</v>
       </c>
       <c r="J55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="K55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="L55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T55" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</v>
-      </c>
-      <c r="U55" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26</v>
-      </c>
-      <c r="V55" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21</v>
-      </c>
-      <c r="W55" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17</v>
-      </c>
-      <c r="X55" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13</v>
-      </c>
-      <c r="Y55" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9</v>
-      </c>
-      <c r="Z55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AA55" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4</v>
-      </c>
-      <c r="AB55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="56" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I56">
         <v>33</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J56:Q71" si="16">MOD(ROUND($I56*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J56:Q71" si="5">MOD(ROUND($I56*J$21/60,0),J$21)</f>
         <v>26</v>
       </c>
       <c r="K56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="L56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="N56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T56" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33</v>
-      </c>
-      <c r="U56" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22</v>
-      </c>
-      <c r="W56" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18</v>
-      </c>
-      <c r="X56" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13</v>
-      </c>
-      <c r="Y56" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9</v>
-      </c>
-      <c r="Z56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7</v>
-      </c>
-      <c r="AA56" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4</v>
-      </c>
-      <c r="AB56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I57">
         <v>34</v>
       </c>
       <c r="J57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="K57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="L57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="N57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T57" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34</v>
-      </c>
-      <c r="U57" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23</v>
-      </c>
-      <c r="W57" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18</v>
-      </c>
-      <c r="X57" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14</v>
-      </c>
-      <c r="Y57" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9</v>
-      </c>
-      <c r="Z57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="AA57" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5</v>
-      </c>
-      <c r="AB57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>35</v>
       </c>
       <c r="J58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="L58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="M58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="N58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T58" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35</v>
-      </c>
-      <c r="U58" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23</v>
-      </c>
-      <c r="W58" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19</v>
-      </c>
-      <c r="X58" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14</v>
-      </c>
-      <c r="Y58" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9</v>
-      </c>
-      <c r="Z58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7</v>
-      </c>
-      <c r="AA58" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5</v>
-      </c>
-      <c r="AB58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="59" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>36</v>
       </c>
       <c r="J59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="K59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="M59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="N59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T59" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36</v>
-      </c>
-      <c r="U59" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19</v>
-      </c>
-      <c r="X59" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14</v>
-      </c>
-      <c r="Y59" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10</v>
-      </c>
-      <c r="Z59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
-      </c>
-      <c r="AA59" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5</v>
-      </c>
-      <c r="AB59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="60" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I60">
         <v>37</v>
       </c>
       <c r="J60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="N60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T60" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37</v>
-      </c>
-      <c r="U60" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20</v>
-      </c>
-      <c r="X60" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15</v>
-      </c>
-      <c r="Y60" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10</v>
-      </c>
-      <c r="Z60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
-      </c>
-      <c r="AA60" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="61" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I61">
         <v>38</v>
       </c>
       <c r="J61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="N61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T61" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38</v>
-      </c>
-      <c r="U61" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25</v>
-      </c>
-      <c r="W61" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20</v>
-      </c>
-      <c r="X61" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15</v>
-      </c>
-      <c r="Y61" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10</v>
-      </c>
-      <c r="Z61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8</v>
-      </c>
-      <c r="AA61" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="62" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>39</v>
       </c>
       <c r="J62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="K62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="L62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39</v>
-      </c>
-      <c r="U62" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26</v>
-      </c>
-      <c r="W62" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21</v>
-      </c>
-      <c r="X62" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16</v>
-      </c>
-      <c r="Y62" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10</v>
-      </c>
-      <c r="Z62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8</v>
-      </c>
-      <c r="AA62" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="63" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I63">
         <v>40</v>
       </c>
       <c r="J63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="K63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="L63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="O63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T63" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40</v>
-      </c>
-      <c r="U63" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27</v>
-      </c>
-      <c r="W63" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21</v>
-      </c>
-      <c r="X63" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16</v>
-      </c>
-      <c r="Y63" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11</v>
-      </c>
-      <c r="Z63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8</v>
-      </c>
-      <c r="AA63" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="64" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>41</v>
       </c>
       <c r="J64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="K64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="L64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="O64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T64" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41</v>
-      </c>
-      <c r="U64" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33</v>
-      </c>
-      <c r="V64" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27</v>
-      </c>
-      <c r="W64" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22</v>
-      </c>
-      <c r="X64" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16</v>
-      </c>
-      <c r="Y64" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11</v>
-      </c>
-      <c r="Z64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8</v>
-      </c>
-      <c r="AA64" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="AB64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="65" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I65">
         <v>42</v>
       </c>
       <c r="J65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="L65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="N65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="O65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42</v>
-      </c>
-      <c r="U65" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28</v>
-      </c>
-      <c r="W65" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22</v>
-      </c>
-      <c r="X65" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17</v>
-      </c>
-      <c r="Y65" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11</v>
-      </c>
-      <c r="Z65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8</v>
-      </c>
-      <c r="AA65" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6</v>
-      </c>
-      <c r="AB65" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="66" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I66">
         <v>43</v>
       </c>
       <c r="J66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="L66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="N66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="O66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T66" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43</v>
-      </c>
-      <c r="U66" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34</v>
-      </c>
-      <c r="V66" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29</v>
-      </c>
-      <c r="W66" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23</v>
-      </c>
-      <c r="X66" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17</v>
-      </c>
-      <c r="Y66" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11</v>
-      </c>
-      <c r="Z66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9</v>
-      </c>
-      <c r="AA66" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6</v>
-      </c>
-      <c r="AB66" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="67" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I67">
         <v>44</v>
       </c>
       <c r="J67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="L67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="N67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="O67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T67" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44</v>
-      </c>
-      <c r="U67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35</v>
-      </c>
-      <c r="V67" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29</v>
-      </c>
-      <c r="W67" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23</v>
-      </c>
-      <c r="X67" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18</v>
-      </c>
-      <c r="Y67" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12</v>
-      </c>
-      <c r="Z67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9</v>
-      </c>
-      <c r="AA67" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6</v>
-      </c>
-      <c r="AB67" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="68" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I68">
         <v>45</v>
       </c>
       <c r="J68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="M68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="N68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="O68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T68" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45</v>
-      </c>
-      <c r="U68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36</v>
-      </c>
-      <c r="V68" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30</v>
-      </c>
-      <c r="W68" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24</v>
-      </c>
-      <c r="X68" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18</v>
-      </c>
-      <c r="Y68" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12</v>
-      </c>
-      <c r="Z68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9</v>
-      </c>
-      <c r="AA68" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB68" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="69" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>46</v>
       </c>
       <c r="J69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="K69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="N69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="O69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T69" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</v>
-      </c>
-      <c r="U69" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37</v>
-      </c>
-      <c r="V69" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31</v>
-      </c>
-      <c r="W69" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25</v>
-      </c>
-      <c r="X69" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18</v>
-      </c>
-      <c r="Y69" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12</v>
-      </c>
-      <c r="Z69" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9</v>
-      </c>
-      <c r="AA69" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB69" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="70" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>47</v>
       </c>
       <c r="J70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="N70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="O70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T70" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47</v>
-      </c>
-      <c r="U70" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38</v>
-      </c>
-      <c r="V70" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31</v>
-      </c>
-      <c r="W70" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25</v>
-      </c>
-      <c r="X70" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19</v>
-      </c>
-      <c r="Y70" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13</v>
-      </c>
-      <c r="Z70" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9</v>
-      </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>48</v>
       </c>
       <c r="J71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="M71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="N71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="O71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T71" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48</v>
-      </c>
-      <c r="U71" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38</v>
-      </c>
-      <c r="V71" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32</v>
-      </c>
-      <c r="W71" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26</v>
-      </c>
-      <c r="X71" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19</v>
-      </c>
-      <c r="Y71" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13</v>
-      </c>
-      <c r="Z71" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10</v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6</v>
-      </c>
-      <c r="AB71" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>49</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:Q82" si="17">MOD(ROUND($I72*J$21/60,0),J$21)</f>
+        <f t="shared" ref="J72:Q82" si="6">MOD(ROUND($I72*J$21/60,0),J$21)</f>
         <v>39</v>
       </c>
       <c r="K72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="L72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="M72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="O72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T72" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49</v>
-      </c>
-      <c r="U72" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39</v>
-      </c>
-      <c r="V72" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33</v>
-      </c>
-      <c r="W72" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26</v>
-      </c>
-      <c r="X72" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20</v>
-      </c>
-      <c r="Y72" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13</v>
-      </c>
-      <c r="Z72" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10</v>
-      </c>
-      <c r="AA72" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7</v>
-      </c>
-      <c r="AB72" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="73" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>50</v>
       </c>
       <c r="J73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="L73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="M73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="O73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T73" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50</v>
-      </c>
-      <c r="U73" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40</v>
-      </c>
-      <c r="V73" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33</v>
-      </c>
-      <c r="W73" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27</v>
-      </c>
-      <c r="X73" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20</v>
-      </c>
-      <c r="Y73" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13</v>
-      </c>
-      <c r="Z73" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10</v>
-      </c>
-      <c r="AA73" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7</v>
-      </c>
-      <c r="AB73" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="74" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>51</v>
       </c>
       <c r="J74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="K74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="L74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="M74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="O74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T74" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51</v>
-      </c>
-      <c r="U74" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41</v>
-      </c>
-      <c r="V74" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34</v>
-      </c>
-      <c r="W74" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27</v>
-      </c>
-      <c r="X74" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20</v>
-      </c>
-      <c r="Y74" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14</v>
-      </c>
-      <c r="Z74" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10</v>
-      </c>
-      <c r="AA74" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7</v>
-      </c>
-      <c r="AB74" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>52</v>
       </c>
       <c r="J75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="K75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="L75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="M75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="O75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T75" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52</v>
-      </c>
-      <c r="U75" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42</v>
-      </c>
-      <c r="V75" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35</v>
-      </c>
-      <c r="W75" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28</v>
-      </c>
-      <c r="X75" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21</v>
-      </c>
-      <c r="Y75" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14</v>
-      </c>
-      <c r="Z75" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10</v>
-      </c>
-      <c r="AA75" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
-      </c>
-      <c r="AB75" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="76" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>53</v>
       </c>
       <c r="J76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="K76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="L76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="M76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="O76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T76" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</v>
-      </c>
-      <c r="U76" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42</v>
-      </c>
-      <c r="V76" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35</v>
-      </c>
-      <c r="W76" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28</v>
-      </c>
-      <c r="X76" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21</v>
-      </c>
-      <c r="Y76" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14</v>
-      </c>
-      <c r="Z76" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11</v>
-      </c>
-      <c r="AA76" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
-      </c>
-      <c r="AB76" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="77" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>54</v>
       </c>
       <c r="J77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="K77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="L77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="M77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="O77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T77" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54</v>
-      </c>
-      <c r="U77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43</v>
-      </c>
-      <c r="V77" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36</v>
-      </c>
-      <c r="W77" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29</v>
-      </c>
-      <c r="X77" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22</v>
-      </c>
-      <c r="Y77" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14</v>
-      </c>
-      <c r="Z77" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11</v>
-      </c>
-      <c r="AA77" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7</v>
-      </c>
-      <c r="AB77" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="78" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>55</v>
       </c>
       <c r="J78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="K78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="L78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="M78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T78" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</v>
-      </c>
-      <c r="U78" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44</v>
-      </c>
-      <c r="V78" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37</v>
-      </c>
-      <c r="W78" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29</v>
-      </c>
-      <c r="X78" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22</v>
-      </c>
-      <c r="Y78" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15</v>
-      </c>
-      <c r="Z78" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11</v>
-      </c>
-      <c r="AA78" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7</v>
-      </c>
-      <c r="AB78" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="79" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>56</v>
       </c>
       <c r="J79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="K79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="L79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="M79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T79" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56</v>
-      </c>
-      <c r="U79" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45</v>
-      </c>
-      <c r="V79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37</v>
-      </c>
-      <c r="W79" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30</v>
-      </c>
-      <c r="X79" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22</v>
-      </c>
-      <c r="Y79" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15</v>
-      </c>
-      <c r="Z79" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11</v>
-      </c>
-      <c r="AA79" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7</v>
-      </c>
-      <c r="AB79" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="80" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>57</v>
       </c>
       <c r="J80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="L80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="M80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="N80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T80" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57</v>
-      </c>
-      <c r="U80" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46</v>
-      </c>
-      <c r="V80" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38</v>
-      </c>
-      <c r="W80" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30</v>
-      </c>
-      <c r="X80" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23</v>
-      </c>
-      <c r="Y80" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15</v>
-      </c>
-      <c r="Z80" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11</v>
-      </c>
-      <c r="AA80" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0</v>
-      </c>
-      <c r="AB80" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="81" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>58</v>
       </c>
       <c r="J81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="L81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="M81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="N81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T81" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58</v>
-      </c>
-      <c r="U81" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46</v>
-      </c>
-      <c r="V81" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39</v>
-      </c>
-      <c r="W81" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31</v>
-      </c>
-      <c r="X81" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23</v>
-      </c>
-      <c r="Y81" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15</v>
-      </c>
-      <c r="Z81" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0</v>
-      </c>
-      <c r="AA81" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0</v>
-      </c>
-      <c r="AB81" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="82" spans="9:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I82">
         <v>59</v>
       </c>
       <c r="J82">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>62</v>
+      </c>
+      <c r="N97" t="s">
+        <v>62</v>
+      </c>
+      <c r="T97" t="s">
+        <v>21</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>60</v>
+      </c>
+      <c r="W97">
+        <v>108</v>
+      </c>
+      <c r="X97">
+        <v>148</v>
+      </c>
+      <c r="Y97">
+        <v>180</v>
+      </c>
+      <c r="Z97">
+        <v>204</v>
+      </c>
+      <c r="AA97">
+        <v>220</v>
+      </c>
+      <c r="AB97">
+        <v>232</v>
+      </c>
+      <c r="AC97">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" t="s">
+        <v>47</v>
+      </c>
+      <c r="L98" t="s">
+        <v>48</v>
+      </c>
+      <c r="M98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N98" t="s">
+        <v>50</v>
+      </c>
+      <c r="O98" t="s">
+        <v>51</v>
+      </c>
+      <c r="P98" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>53</v>
+      </c>
+      <c r="S98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="T99" t="str">
+        <f>" { "&amp;I99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" ref="U99" si="7">" { "&amp;J99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="V99" t="str">
+        <f t="shared" ref="V99" si="8">" { "&amp;K99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="W99" t="str">
+        <f t="shared" ref="W99" si="9">" { "&amp;L99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="X99" t="str">
+        <f t="shared" ref="X99" si="10">" { "&amp;M99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="Y99" t="str">
+        <f t="shared" ref="Y99" si="11">" { "&amp;N99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" ref="Z99" si="12">" { "&amp;O99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" ref="AA99" si="13">" { "&amp;P99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" ref="AB99" si="14">" { "&amp;Q99</f>
+        <v xml:space="preserve"> { 0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f>T99&amp;", "&amp;I100</f>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" ref="U100:U159" si="15">U99&amp;", "&amp;J100</f>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="V100" t="str">
+        <f t="shared" ref="V100:V159" si="16">V99&amp;", "&amp;K100</f>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="W100" t="str">
+        <f t="shared" ref="W100:W159" si="17">W99&amp;", "&amp;L100</f>
+        <v xml:space="preserve"> { 0, 1</v>
+      </c>
+      <c r="X100" t="str">
+        <f t="shared" ref="X100:X159" si="18">X99&amp;", "&amp;M100</f>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="Y100" t="str">
+        <f t="shared" ref="Y100:Y159" si="19">Y99&amp;", "&amp;N100</f>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" ref="Z100:Z159" si="20">Z99&amp;", "&amp;O100</f>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" ref="AA100:AA159" si="21">AA99&amp;", "&amp;P100</f>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" ref="AB100:AB159" si="22">AB99&amp;", "&amp;Q100</f>
+        <v xml:space="preserve"> { 0, 0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" ref="T101:T159" si="23">T100&amp;", "&amp;I101</f>
+        <v xml:space="preserve"> { 0, 1, 2</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2</v>
+      </c>
+      <c r="V101" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1</v>
+      </c>
+      <c r="W101" t="str">
         <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1</v>
+      </c>
+      <c r="X101" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+      <c r="Y101" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2</v>
+      </c>
+      <c r="V102" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2</v>
+      </c>
+      <c r="W102" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2</v>
+      </c>
+      <c r="X102" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1</v>
+      </c>
+      <c r="Y102" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3</v>
+      </c>
+      <c r="V103" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3</v>
+      </c>
+      <c r="W103" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2</v>
+      </c>
+      <c r="X103" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1</v>
+      </c>
+      <c r="Y103" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4</v>
+      </c>
+      <c r="V104" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3</v>
+      </c>
+      <c r="W104" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3</v>
+      </c>
+      <c r="X104" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2</v>
+      </c>
+      <c r="Y104" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5</v>
+      </c>
+      <c r="V105" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4</v>
+      </c>
+      <c r="W105" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3</v>
+      </c>
+      <c r="X105" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2</v>
+      </c>
+      <c r="Y105" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>7</v>
+      </c>
+      <c r="J106">
+        <v>6</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6</v>
+      </c>
+      <c r="V106" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5</v>
+      </c>
+      <c r="W106" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4</v>
+      </c>
+      <c r="X106" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="Y106" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>8</v>
+      </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+      <c r="K107">
+        <v>5</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6</v>
+      </c>
+      <c r="V107" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5</v>
+      </c>
+      <c r="W107" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4</v>
+      </c>
+      <c r="X107" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3</v>
+      </c>
+      <c r="Y107" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>9</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="T108" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9</v>
+      </c>
+      <c r="U108" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7</v>
+      </c>
+      <c r="V108" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6</v>
+      </c>
+      <c r="W108" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5</v>
+      </c>
+      <c r="X108" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="Y108" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB108" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="J109">
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
+      <c r="L109">
+        <v>5</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="T109" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10</v>
+      </c>
+      <c r="U109" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8</v>
+      </c>
+      <c r="V109" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7</v>
+      </c>
+      <c r="W109" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5</v>
+      </c>
+      <c r="X109" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4</v>
+      </c>
+      <c r="Y109" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB109" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="110" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>11</v>
+      </c>
+      <c r="J110">
+        <v>9</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="T110" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</v>
+      </c>
+      <c r="U110" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9</v>
+      </c>
+      <c r="V110" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7</v>
+      </c>
+      <c r="W110" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6</v>
+      </c>
+      <c r="X110" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4</v>
+      </c>
+      <c r="Y110" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3</v>
+      </c>
+      <c r="Z110" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
+      </c>
+      <c r="AA110" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="AB110" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>12</v>
+      </c>
+      <c r="J111">
+        <v>10</v>
+      </c>
+      <c r="K111">
+        <v>8</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+      <c r="P111">
+        <v>2</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="T111" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12</v>
+      </c>
+      <c r="U111" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10</v>
+      </c>
+      <c r="V111" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8</v>
+      </c>
+      <c r="W111" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6</v>
+      </c>
+      <c r="X111" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="Y111" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="Z111" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AA111" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2</v>
+      </c>
+      <c r="AB111" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="112" spans="9:29" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>13</v>
+      </c>
+      <c r="J112">
+        <v>10</v>
+      </c>
+      <c r="K112">
+        <v>9</v>
+      </c>
+      <c r="L112">
+        <v>7</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>2</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="T112" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13</v>
+      </c>
+      <c r="U112" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10</v>
+      </c>
+      <c r="V112" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9</v>
+      </c>
+      <c r="W112" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7</v>
+      </c>
+      <c r="X112" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5</v>
+      </c>
+      <c r="Y112" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3</v>
+      </c>
+      <c r="Z112" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3</v>
+      </c>
+      <c r="AA112" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2</v>
+      </c>
+      <c r="AB112" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="113" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>14</v>
+      </c>
+      <c r="J113">
+        <v>11</v>
+      </c>
+      <c r="K113">
+        <v>9</v>
+      </c>
+      <c r="L113">
+        <v>7</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>3</v>
+      </c>
+      <c r="P113">
+        <v>2</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="T113" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14</v>
+      </c>
+      <c r="U113" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11</v>
+      </c>
+      <c r="V113" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9</v>
+      </c>
+      <c r="W113" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7</v>
+      </c>
+      <c r="X113" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="Y113" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3</v>
+      </c>
+      <c r="Z113" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="AA113" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2</v>
+      </c>
+      <c r="AB113" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="114" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>15</v>
+      </c>
+      <c r="J114">
+        <v>12</v>
+      </c>
+      <c r="K114">
+        <v>10</v>
+      </c>
+      <c r="L114">
+        <v>8</v>
+      </c>
+      <c r="M114">
+        <v>6</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>2</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="T114" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15</v>
+      </c>
+      <c r="U114" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12</v>
+      </c>
+      <c r="V114" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10</v>
+      </c>
+      <c r="W114" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8</v>
+      </c>
+      <c r="X114" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6</v>
+      </c>
+      <c r="Y114" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="Z114" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3</v>
+      </c>
+      <c r="AA114" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB114" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>16</v>
+      </c>
+      <c r="J115">
+        <v>13</v>
+      </c>
+      <c r="K115">
+        <v>11</v>
+      </c>
+      <c r="L115">
+        <v>9</v>
+      </c>
+      <c r="M115">
+        <v>6</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <v>3</v>
+      </c>
+      <c r="P115">
+        <v>2</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="T115" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</v>
+      </c>
+      <c r="U115" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13</v>
+      </c>
+      <c r="V115" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11</v>
+      </c>
+      <c r="W115" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9</v>
+      </c>
+      <c r="X115" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6</v>
+      </c>
+      <c r="Y115" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="Z115" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
+      </c>
+      <c r="AA115" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB115" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="116" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>14</v>
+      </c>
+      <c r="K116">
+        <v>11</v>
+      </c>
+      <c r="L116">
+        <v>9</v>
+      </c>
+      <c r="M116">
+        <v>6</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>3</v>
+      </c>
+      <c r="P116">
+        <v>2</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="T116" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17</v>
+      </c>
+      <c r="U116" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14</v>
+      </c>
+      <c r="V116" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11</v>
+      </c>
+      <c r="W116" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9</v>
+      </c>
+      <c r="X116" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="Y116" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="Z116" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AA116" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB116" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>18</v>
+      </c>
+      <c r="J117">
+        <v>14</v>
+      </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <v>10</v>
+      </c>
+      <c r="M117">
+        <v>7</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="T117" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18</v>
+      </c>
+      <c r="U117" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14</v>
+      </c>
+      <c r="V117" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12</v>
+      </c>
+      <c r="W117" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10</v>
+      </c>
+      <c r="X117" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7</v>
+      </c>
+      <c r="Y117" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5</v>
+      </c>
+      <c r="Z117" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="AA117" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2</v>
+      </c>
+      <c r="AB117" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="118" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>19</v>
+      </c>
+      <c r="J118">
+        <v>15</v>
+      </c>
+      <c r="K118">
+        <v>13</v>
+      </c>
+      <c r="L118">
+        <v>10</v>
+      </c>
+      <c r="M118">
+        <v>7</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>3</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="T118" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
+      </c>
+      <c r="U118" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15</v>
+      </c>
+      <c r="V118" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13</v>
+      </c>
+      <c r="W118" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10</v>
+      </c>
+      <c r="X118" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="Y118" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="Z118" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="AA118" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3</v>
+      </c>
+      <c r="AB118" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="119" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>20</v>
+      </c>
+      <c r="J119">
+        <v>16</v>
+      </c>
+      <c r="K119">
+        <v>13</v>
+      </c>
+      <c r="L119">
+        <v>11</v>
+      </c>
+      <c r="M119">
+        <v>8</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="P119">
+        <v>3</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="T119" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
+      </c>
+      <c r="U119" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16</v>
+      </c>
+      <c r="V119" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13</v>
+      </c>
+      <c r="W119" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11</v>
+      </c>
+      <c r="X119" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8</v>
+      </c>
+      <c r="Y119" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="Z119" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="AA119" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3</v>
+      </c>
+      <c r="AB119" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="120" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>21</v>
+      </c>
+      <c r="J120">
+        <v>17</v>
+      </c>
+      <c r="K120">
+        <v>14</v>
+      </c>
+      <c r="L120">
+        <v>11</v>
+      </c>
+      <c r="M120">
+        <v>8</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120">
+        <v>4</v>
+      </c>
+      <c r="P120">
+        <v>3</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="T120" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21</v>
+      </c>
+      <c r="U120" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17</v>
+      </c>
+      <c r="V120" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14</v>
+      </c>
+      <c r="W120" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11</v>
+      </c>
+      <c r="X120" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8</v>
+      </c>
+      <c r="Y120" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="Z120" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
+      </c>
+      <c r="AA120" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3</v>
+      </c>
+      <c r="AB120" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>22</v>
+      </c>
+      <c r="J121">
+        <v>18</v>
+      </c>
+      <c r="K121">
+        <v>15</v>
+      </c>
+      <c r="L121">
+        <v>12</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121">
+        <v>3</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="T121" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22</v>
+      </c>
+      <c r="U121" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18</v>
+      </c>
+      <c r="V121" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15</v>
+      </c>
+      <c r="W121" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12</v>
+      </c>
+      <c r="X121" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="Y121" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="Z121" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AA121" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB121" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="122" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>23</v>
+      </c>
+      <c r="J122">
+        <v>18</v>
+      </c>
+      <c r="K122">
+        <v>15</v>
+      </c>
+      <c r="L122">
+        <v>12</v>
+      </c>
+      <c r="M122">
+        <v>9</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122">
+        <v>5</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="T122" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23</v>
+      </c>
+      <c r="U122" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18</v>
+      </c>
+      <c r="V122" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15</v>
+      </c>
+      <c r="W122" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12</v>
+      </c>
+      <c r="X122" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9</v>
+      </c>
+      <c r="Y122" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="Z122" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5</v>
+      </c>
+      <c r="AA122" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB122" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>24</v>
+      </c>
+      <c r="J123">
+        <v>19</v>
+      </c>
+      <c r="K123">
+        <v>16</v>
+      </c>
+      <c r="L123">
+        <v>13</v>
+      </c>
+      <c r="M123">
+        <v>9</v>
+      </c>
+      <c r="N123">
+        <v>6</v>
+      </c>
+      <c r="O123">
+        <v>5</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="T123" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24</v>
+      </c>
+      <c r="U123" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19</v>
+      </c>
+      <c r="V123" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16</v>
+      </c>
+      <c r="W123" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13</v>
+      </c>
+      <c r="X123" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="Y123" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="Z123" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="AA123" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB123" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="124" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>25</v>
+      </c>
+      <c r="J124">
+        <v>20</v>
+      </c>
+      <c r="K124">
+        <v>17</v>
+      </c>
+      <c r="L124">
+        <v>13</v>
+      </c>
+      <c r="M124">
+        <v>10</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>3</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="T124" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25</v>
+      </c>
+      <c r="U124" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20</v>
+      </c>
+      <c r="V124" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17</v>
+      </c>
+      <c r="W124" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13</v>
+      </c>
+      <c r="X124" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10</v>
+      </c>
+      <c r="Y124" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="Z124" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="AA124" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB124" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>26</v>
+      </c>
+      <c r="J125">
+        <v>21</v>
+      </c>
+      <c r="K125">
+        <v>17</v>
+      </c>
+      <c r="L125">
+        <v>14</v>
+      </c>
+      <c r="M125">
+        <v>10</v>
+      </c>
+      <c r="N125">
+        <v>7</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>3</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="T125" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26</v>
+      </c>
+      <c r="U125" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21</v>
+      </c>
+      <c r="V125" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17</v>
+      </c>
+      <c r="W125" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14</v>
+      </c>
+      <c r="X125" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10</v>
+      </c>
+      <c r="Y125" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="Z125" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="AA125" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3</v>
+      </c>
+      <c r="AB125" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="126" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>27</v>
+      </c>
+      <c r="J126">
+        <v>22</v>
+      </c>
+      <c r="K126">
+        <v>18</v>
+      </c>
+      <c r="L126">
+        <v>14</v>
+      </c>
+      <c r="M126">
+        <v>10</v>
+      </c>
+      <c r="N126">
+        <v>7</v>
+      </c>
+      <c r="O126">
+        <v>5</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="T126" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27</v>
+      </c>
+      <c r="U126" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22</v>
+      </c>
+      <c r="V126" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18</v>
+      </c>
+      <c r="W126" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14</v>
+      </c>
+      <c r="X126" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="Y126" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="Z126" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AA126" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4</v>
+      </c>
+      <c r="AB126" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="127" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>28</v>
+      </c>
+      <c r="J127">
+        <v>22</v>
+      </c>
+      <c r="K127">
+        <v>19</v>
+      </c>
+      <c r="L127">
+        <v>15</v>
+      </c>
+      <c r="M127">
+        <v>11</v>
+      </c>
+      <c r="N127">
+        <v>7</v>
+      </c>
+      <c r="O127">
+        <v>6</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="T127" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28</v>
+      </c>
+      <c r="U127" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22</v>
+      </c>
+      <c r="V127" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19</v>
+      </c>
+      <c r="W127" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15</v>
+      </c>
+      <c r="X127" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11</v>
+      </c>
+      <c r="Y127" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="Z127" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="AA127" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4</v>
+      </c>
+      <c r="AB127" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>29</v>
+      </c>
+      <c r="J128">
+        <v>23</v>
+      </c>
+      <c r="K128">
+        <v>19</v>
+      </c>
+      <c r="L128">
+        <v>15</v>
+      </c>
+      <c r="M128">
+        <v>11</v>
+      </c>
+      <c r="N128">
+        <v>7</v>
+      </c>
+      <c r="O128">
+        <v>6</v>
+      </c>
+      <c r="P128">
+        <v>4</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="T128" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29</v>
+      </c>
+      <c r="U128" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23</v>
+      </c>
+      <c r="V128" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19</v>
+      </c>
+      <c r="W128" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15</v>
+      </c>
+      <c r="X128" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="Y128" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="Z128" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="AA128" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4</v>
+      </c>
+      <c r="AB128" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="129" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>30</v>
+      </c>
+      <c r="J129">
+        <v>24</v>
+      </c>
+      <c r="K129">
+        <v>20</v>
+      </c>
+      <c r="L129">
+        <v>16</v>
+      </c>
+      <c r="M129">
+        <v>12</v>
+      </c>
+      <c r="N129">
+        <v>8</v>
+      </c>
+      <c r="O129">
+        <v>6</v>
+      </c>
+      <c r="P129">
+        <v>4</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="T129" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30</v>
+      </c>
+      <c r="U129" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24</v>
+      </c>
+      <c r="V129" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20</v>
+      </c>
+      <c r="W129" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16</v>
+      </c>
+      <c r="X129" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12</v>
+      </c>
+      <c r="Y129" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8</v>
+      </c>
+      <c r="Z129" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="AA129" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB129" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="130" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>31</v>
+      </c>
+      <c r="J130">
+        <v>25</v>
+      </c>
+      <c r="K130">
+        <v>21</v>
+      </c>
+      <c r="L130">
+        <v>17</v>
+      </c>
+      <c r="M130">
+        <v>12</v>
+      </c>
+      <c r="N130">
+        <v>8</v>
+      </c>
+      <c r="O130">
+        <v>6</v>
+      </c>
+      <c r="P130">
+        <v>4</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="T130" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31</v>
+      </c>
+      <c r="U130" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25</v>
+      </c>
+      <c r="V130" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21</v>
+      </c>
+      <c r="W130" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17</v>
+      </c>
+      <c r="X130" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12</v>
+      </c>
+      <c r="Y130" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8</v>
+      </c>
+      <c r="Z130" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="AA130" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB130" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="131" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>32</v>
+      </c>
+      <c r="J131">
+        <v>26</v>
+      </c>
+      <c r="K131">
+        <v>21</v>
+      </c>
+      <c r="L131">
+        <v>17</v>
+      </c>
+      <c r="M131">
+        <v>12</v>
+      </c>
+      <c r="N131">
+        <v>8</v>
+      </c>
+      <c r="O131">
+        <v>6</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="T131" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</v>
+      </c>
+      <c r="U131" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26</v>
+      </c>
+      <c r="V131" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21</v>
+      </c>
+      <c r="W131" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17</v>
+      </c>
+      <c r="X131" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12</v>
+      </c>
+      <c r="Y131" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="Z131" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AA131" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB131" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="132" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>33</v>
+      </c>
+      <c r="J132">
+        <v>26</v>
+      </c>
+      <c r="K132">
+        <v>22</v>
+      </c>
+      <c r="L132">
+        <v>18</v>
+      </c>
+      <c r="M132">
+        <v>13</v>
+      </c>
+      <c r="N132">
+        <v>9</v>
+      </c>
+      <c r="O132">
+        <v>7</v>
+      </c>
+      <c r="P132">
+        <v>4</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="T132" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33</v>
+      </c>
+      <c r="U132" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26</v>
+      </c>
+      <c r="V132" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22</v>
+      </c>
+      <c r="W132" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18</v>
+      </c>
+      <c r="X132" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13</v>
+      </c>
+      <c r="Y132" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9</v>
+      </c>
+      <c r="Z132" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="AA132" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4</v>
+      </c>
+      <c r="AB132" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="133" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>34</v>
+      </c>
+      <c r="J133">
+        <v>27</v>
+      </c>
+      <c r="K133">
+        <v>23</v>
+      </c>
+      <c r="L133">
+        <v>18</v>
+      </c>
+      <c r="M133">
+        <v>13</v>
+      </c>
+      <c r="N133">
+        <v>9</v>
+      </c>
+      <c r="O133">
+        <v>7</v>
+      </c>
+      <c r="P133">
+        <v>5</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="T133" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34</v>
+      </c>
+      <c r="U133" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27</v>
+      </c>
+      <c r="V133" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23</v>
+      </c>
+      <c r="W133" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18</v>
+      </c>
+      <c r="X133" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13</v>
+      </c>
+      <c r="Y133" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="Z133" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="AA133" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5</v>
+      </c>
+      <c r="AB133" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="134" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>35</v>
+      </c>
+      <c r="J134">
+        <v>28</v>
+      </c>
+      <c r="K134">
+        <v>23</v>
+      </c>
+      <c r="L134">
+        <v>19</v>
+      </c>
+      <c r="M134">
+        <v>14</v>
+      </c>
+      <c r="N134">
+        <v>9</v>
+      </c>
+      <c r="O134">
+        <v>7</v>
+      </c>
+      <c r="P134">
+        <v>5</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="T134" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35</v>
+      </c>
+      <c r="U134" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28</v>
+      </c>
+      <c r="V134" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23</v>
+      </c>
+      <c r="W134" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19</v>
+      </c>
+      <c r="X134" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14</v>
+      </c>
+      <c r="Y134" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9</v>
+      </c>
+      <c r="Z134" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="AA134" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5</v>
+      </c>
+      <c r="AB134" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>36</v>
+      </c>
+      <c r="J135">
+        <v>29</v>
+      </c>
+      <c r="K135">
+        <v>24</v>
+      </c>
+      <c r="L135">
+        <v>19</v>
+      </c>
+      <c r="M135">
+        <v>14</v>
+      </c>
+      <c r="N135">
+        <v>9</v>
+      </c>
+      <c r="O135">
+        <v>7</v>
+      </c>
+      <c r="P135">
+        <v>5</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="T135" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36</v>
+      </c>
+      <c r="U135" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29</v>
+      </c>
+      <c r="V135" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24</v>
+      </c>
+      <c r="W135" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19</v>
+      </c>
+      <c r="X135" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14</v>
+      </c>
+      <c r="Y135" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9</v>
+      </c>
+      <c r="Z135" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="AA135" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5</v>
+      </c>
+      <c r="AB135" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="136" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>37</v>
+      </c>
+      <c r="J136">
+        <v>30</v>
+      </c>
+      <c r="K136">
+        <v>25</v>
+      </c>
+      <c r="L136">
+        <v>20</v>
+      </c>
+      <c r="M136">
+        <v>14</v>
+      </c>
+      <c r="N136">
+        <v>10</v>
+      </c>
+      <c r="O136">
+        <v>7</v>
+      </c>
+      <c r="P136">
+        <v>5</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="T136" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37</v>
+      </c>
+      <c r="U136" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30</v>
+      </c>
+      <c r="V136" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25</v>
+      </c>
+      <c r="W136" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20</v>
+      </c>
+      <c r="X136" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14</v>
+      </c>
+      <c r="Y136" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10</v>
+      </c>
+      <c r="Z136" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AA136" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB136" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="137" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>38</v>
+      </c>
+      <c r="J137">
+        <v>30</v>
+      </c>
+      <c r="K137">
+        <v>25</v>
+      </c>
+      <c r="L137">
+        <v>20</v>
+      </c>
+      <c r="M137">
+        <v>15</v>
+      </c>
+      <c r="N137">
+        <v>10</v>
+      </c>
+      <c r="O137">
+        <v>8</v>
+      </c>
+      <c r="P137">
+        <v>5</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="T137" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38</v>
+      </c>
+      <c r="U137" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30</v>
+      </c>
+      <c r="V137" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25</v>
+      </c>
+      <c r="W137" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20</v>
+      </c>
+      <c r="X137" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15</v>
+      </c>
+      <c r="Y137" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10</v>
+      </c>
+      <c r="Z137" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8</v>
+      </c>
+      <c r="AA137" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB137" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="138" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>39</v>
+      </c>
+      <c r="J138">
+        <v>31</v>
+      </c>
+      <c r="K138">
+        <v>26</v>
+      </c>
+      <c r="L138">
+        <v>21</v>
+      </c>
+      <c r="M138">
+        <v>15</v>
+      </c>
+      <c r="N138">
+        <v>10</v>
+      </c>
+      <c r="O138">
+        <v>8</v>
+      </c>
+      <c r="P138">
+        <v>5</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="T138" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39</v>
+      </c>
+      <c r="U138" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31</v>
+      </c>
+      <c r="V138" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26</v>
+      </c>
+      <c r="W138" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21</v>
+      </c>
+      <c r="X138" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15</v>
+      </c>
+      <c r="Y138" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="Z138" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8</v>
+      </c>
+      <c r="AA138" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB138" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="139" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>40</v>
+      </c>
+      <c r="J139">
+        <v>32</v>
+      </c>
+      <c r="K139">
+        <v>27</v>
+      </c>
+      <c r="L139">
+        <v>21</v>
+      </c>
+      <c r="M139">
+        <v>16</v>
+      </c>
+      <c r="N139">
+        <v>10</v>
+      </c>
+      <c r="O139">
+        <v>8</v>
+      </c>
+      <c r="P139">
+        <v>5</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="T139" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40</v>
+      </c>
+      <c r="U139" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32</v>
+      </c>
+      <c r="V139" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27</v>
+      </c>
+      <c r="W139" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21</v>
+      </c>
+      <c r="X139" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16</v>
+      </c>
+      <c r="Y139" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10</v>
+      </c>
+      <c r="Z139" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8</v>
+      </c>
+      <c r="AA139" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB139" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="140" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>41</v>
+      </c>
+      <c r="J140">
+        <v>33</v>
+      </c>
+      <c r="K140">
+        <v>27</v>
+      </c>
+      <c r="L140">
+        <v>22</v>
+      </c>
+      <c r="M140">
+        <v>16</v>
+      </c>
+      <c r="N140">
+        <v>11</v>
+      </c>
+      <c r="O140">
+        <v>8</v>
+      </c>
+      <c r="P140">
+        <v>5</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="T140" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41</v>
+      </c>
+      <c r="U140" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33</v>
+      </c>
+      <c r="V140" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27</v>
+      </c>
+      <c r="W140" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22</v>
+      </c>
+      <c r="X140" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16</v>
+      </c>
+      <c r="Y140" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11</v>
+      </c>
+      <c r="Z140" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8</v>
+      </c>
+      <c r="AA140" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="AB140" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="141" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>42</v>
+      </c>
+      <c r="J141">
+        <v>34</v>
+      </c>
+      <c r="K141">
+        <v>28</v>
+      </c>
+      <c r="L141">
+        <v>22</v>
+      </c>
+      <c r="M141">
+        <v>16</v>
+      </c>
+      <c r="N141">
+        <v>11</v>
+      </c>
+      <c r="O141">
+        <v>8</v>
+      </c>
+      <c r="P141">
+        <v>6</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="T141" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42</v>
+      </c>
+      <c r="U141" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34</v>
+      </c>
+      <c r="V141" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28</v>
+      </c>
+      <c r="W141" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22</v>
+      </c>
+      <c r="X141" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16</v>
+      </c>
+      <c r="Y141" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="Z141" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8</v>
+      </c>
+      <c r="AA141" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6</v>
+      </c>
+      <c r="AB141" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="142" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>43</v>
+      </c>
+      <c r="J142">
+        <v>34</v>
+      </c>
+      <c r="K142">
+        <v>29</v>
+      </c>
+      <c r="L142">
+        <v>23</v>
+      </c>
+      <c r="M142">
+        <v>17</v>
+      </c>
+      <c r="N142">
+        <v>11</v>
+      </c>
+      <c r="O142">
+        <v>9</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="T142" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43</v>
+      </c>
+      <c r="U142" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34</v>
+      </c>
+      <c r="V142" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29</v>
+      </c>
+      <c r="W142" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23</v>
+      </c>
+      <c r="X142" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17</v>
+      </c>
+      <c r="Y142" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11</v>
+      </c>
+      <c r="Z142" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9</v>
+      </c>
+      <c r="AA142" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6</v>
+      </c>
+      <c r="AB142" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="143" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>44</v>
+      </c>
+      <c r="J143">
+        <v>35</v>
+      </c>
+      <c r="K143">
+        <v>29</v>
+      </c>
+      <c r="L143">
+        <v>23</v>
+      </c>
+      <c r="M143">
+        <v>17</v>
+      </c>
+      <c r="N143">
+        <v>11</v>
+      </c>
+      <c r="O143">
+        <v>9</v>
+      </c>
+      <c r="P143">
+        <v>6</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="T143" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44</v>
+      </c>
+      <c r="U143" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35</v>
+      </c>
+      <c r="V143" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29</v>
+      </c>
+      <c r="W143" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23</v>
+      </c>
+      <c r="X143" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17</v>
+      </c>
+      <c r="Y143" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11</v>
+      </c>
+      <c r="Z143" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9</v>
+      </c>
+      <c r="AA143" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6</v>
+      </c>
+      <c r="AB143" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="144" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>45</v>
+      </c>
+      <c r="J144">
+        <v>36</v>
+      </c>
+      <c r="K144">
+        <v>30</v>
+      </c>
+      <c r="L144">
+        <v>24</v>
+      </c>
+      <c r="M144">
+        <v>18</v>
+      </c>
+      <c r="N144">
+        <v>12</v>
+      </c>
+      <c r="O144">
+        <v>9</v>
+      </c>
+      <c r="P144">
+        <v>6</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="T144" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45</v>
+      </c>
+      <c r="U144" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36</v>
+      </c>
+      <c r="V144" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30</v>
+      </c>
+      <c r="W144" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24</v>
+      </c>
+      <c r="X144" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18</v>
+      </c>
+      <c r="Y144" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12</v>
+      </c>
+      <c r="Z144" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9</v>
+      </c>
+      <c r="AA144" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB144" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="145" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>46</v>
+      </c>
+      <c r="J145">
+        <v>37</v>
+      </c>
+      <c r="K145">
+        <v>31</v>
+      </c>
+      <c r="L145">
+        <v>25</v>
+      </c>
+      <c r="M145">
+        <v>18</v>
+      </c>
+      <c r="N145">
+        <v>12</v>
+      </c>
+      <c r="O145">
+        <v>9</v>
+      </c>
+      <c r="P145">
+        <v>6</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="T145" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</v>
+      </c>
+      <c r="U145" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37</v>
+      </c>
+      <c r="V145" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31</v>
+      </c>
+      <c r="W145" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25</v>
+      </c>
+      <c r="X145" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18</v>
+      </c>
+      <c r="Y145" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12</v>
+      </c>
+      <c r="Z145" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9</v>
+      </c>
+      <c r="AA145" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB145" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="146" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I146">
         <v>47</v>
       </c>
-      <c r="K82">
+      <c r="J146">
+        <v>38</v>
+      </c>
+      <c r="K146">
+        <v>31</v>
+      </c>
+      <c r="L146">
+        <v>25</v>
+      </c>
+      <c r="M146">
+        <v>18</v>
+      </c>
+      <c r="N146">
+        <v>12</v>
+      </c>
+      <c r="O146">
+        <v>9</v>
+      </c>
+      <c r="P146">
+        <v>6</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="T146" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47</v>
+      </c>
+      <c r="U146" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38</v>
+      </c>
+      <c r="V146" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31</v>
+      </c>
+      <c r="W146" t="str">
         <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25</v>
+      </c>
+      <c r="X146" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18</v>
+      </c>
+      <c r="Y146" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12</v>
+      </c>
+      <c r="Z146" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9</v>
+      </c>
+      <c r="AA146" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB146" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="147" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>48</v>
+      </c>
+      <c r="J147">
+        <v>38</v>
+      </c>
+      <c r="K147">
+        <v>32</v>
+      </c>
+      <c r="L147">
+        <v>26</v>
+      </c>
+      <c r="M147">
+        <v>19</v>
+      </c>
+      <c r="N147">
+        <v>13</v>
+      </c>
+      <c r="O147">
+        <v>10</v>
+      </c>
+      <c r="P147">
+        <v>6</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="T147" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48</v>
+      </c>
+      <c r="U147" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38</v>
+      </c>
+      <c r="V147" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32</v>
+      </c>
+      <c r="W147" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26</v>
+      </c>
+      <c r="X147" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19</v>
+      </c>
+      <c r="Y147" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13</v>
+      </c>
+      <c r="Z147" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10</v>
+      </c>
+      <c r="AA147" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6</v>
+      </c>
+      <c r="AB147" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="148" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>49</v>
+      </c>
+      <c r="J148">
         <v>39</v>
       </c>
-      <c r="L82">
+      <c r="K148">
+        <v>33</v>
+      </c>
+      <c r="L148">
+        <v>26</v>
+      </c>
+      <c r="M148">
+        <v>19</v>
+      </c>
+      <c r="N148">
+        <v>13</v>
+      </c>
+      <c r="O148">
+        <v>10</v>
+      </c>
+      <c r="P148">
+        <v>7</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="T148" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49</v>
+      </c>
+      <c r="U148" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39</v>
+      </c>
+      <c r="V148" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33</v>
+      </c>
+      <c r="W148" t="str">
         <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26</v>
+      </c>
+      <c r="X148" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19</v>
+      </c>
+      <c r="Y148" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13</v>
+      </c>
+      <c r="Z148" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10</v>
+      </c>
+      <c r="AA148" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7</v>
+      </c>
+      <c r="AB148" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="149" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>50</v>
+      </c>
+      <c r="J149">
+        <v>40</v>
+      </c>
+      <c r="K149">
+        <v>33</v>
+      </c>
+      <c r="L149">
+        <v>27</v>
+      </c>
+      <c r="M149">
+        <v>20</v>
+      </c>
+      <c r="N149">
+        <v>13</v>
+      </c>
+      <c r="O149">
+        <v>10</v>
+      </c>
+      <c r="P149">
+        <v>7</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="T149" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50</v>
+      </c>
+      <c r="U149" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40</v>
+      </c>
+      <c r="V149" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33</v>
+      </c>
+      <c r="W149" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27</v>
+      </c>
+      <c r="X149" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20</v>
+      </c>
+      <c r="Y149" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13</v>
+      </c>
+      <c r="Z149" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10</v>
+      </c>
+      <c r="AA149" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7</v>
+      </c>
+      <c r="AB149" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="150" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>51</v>
+      </c>
+      <c r="J150">
+        <v>41</v>
+      </c>
+      <c r="K150">
+        <v>34</v>
+      </c>
+      <c r="L150">
+        <v>27</v>
+      </c>
+      <c r="M150">
+        <v>20</v>
+      </c>
+      <c r="N150">
+        <v>13</v>
+      </c>
+      <c r="O150">
+        <v>10</v>
+      </c>
+      <c r="P150">
+        <v>7</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="T150" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51</v>
+      </c>
+      <c r="U150" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41</v>
+      </c>
+      <c r="V150" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34</v>
+      </c>
+      <c r="W150" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27</v>
+      </c>
+      <c r="X150" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20</v>
+      </c>
+      <c r="Y150" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13</v>
+      </c>
+      <c r="Z150" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10</v>
+      </c>
+      <c r="AA150" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7</v>
+      </c>
+      <c r="AB150" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="151" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>52</v>
+      </c>
+      <c r="J151">
+        <v>42</v>
+      </c>
+      <c r="K151">
+        <v>35</v>
+      </c>
+      <c r="L151">
+        <v>28</v>
+      </c>
+      <c r="M151">
+        <v>20</v>
+      </c>
+      <c r="N151">
+        <v>14</v>
+      </c>
+      <c r="O151">
+        <v>10</v>
+      </c>
+      <c r="P151">
+        <v>7</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="T151" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52</v>
+      </c>
+      <c r="U151" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42</v>
+      </c>
+      <c r="V151" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35</v>
+      </c>
+      <c r="W151" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28</v>
+      </c>
+      <c r="X151" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20</v>
+      </c>
+      <c r="Y151" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14</v>
+      </c>
+      <c r="Z151" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10</v>
+      </c>
+      <c r="AA151" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB151" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="152" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>53</v>
+      </c>
+      <c r="J152">
+        <v>42</v>
+      </c>
+      <c r="K152">
+        <v>35</v>
+      </c>
+      <c r="L152">
+        <v>28</v>
+      </c>
+      <c r="M152">
+        <v>21</v>
+      </c>
+      <c r="N152">
+        <v>14</v>
+      </c>
+      <c r="O152">
+        <v>11</v>
+      </c>
+      <c r="P152">
+        <v>7</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="T152" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</v>
+      </c>
+      <c r="U152" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42</v>
+      </c>
+      <c r="V152" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35</v>
+      </c>
+      <c r="W152" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28</v>
+      </c>
+      <c r="X152" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21</v>
+      </c>
+      <c r="Y152" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14</v>
+      </c>
+      <c r="Z152" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11</v>
+      </c>
+      <c r="AA152" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB152" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="153" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>54</v>
+      </c>
+      <c r="J153">
+        <v>43</v>
+      </c>
+      <c r="K153">
+        <v>36</v>
+      </c>
+      <c r="L153">
+        <v>29</v>
+      </c>
+      <c r="M153">
+        <v>21</v>
+      </c>
+      <c r="N153">
+        <v>14</v>
+      </c>
+      <c r="O153">
+        <v>11</v>
+      </c>
+      <c r="P153">
+        <v>7</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="T153" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54</v>
+      </c>
+      <c r="U153" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43</v>
+      </c>
+      <c r="V153" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36</v>
+      </c>
+      <c r="W153" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29</v>
+      </c>
+      <c r="X153" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21</v>
+      </c>
+      <c r="Y153" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14</v>
+      </c>
+      <c r="Z153" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11</v>
+      </c>
+      <c r="AA153" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB153" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="154" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>55</v>
+      </c>
+      <c r="J154">
+        <v>44</v>
+      </c>
+      <c r="K154">
+        <v>37</v>
+      </c>
+      <c r="L154">
+        <v>29</v>
+      </c>
+      <c r="M154">
+        <v>22</v>
+      </c>
+      <c r="N154">
+        <v>14</v>
+      </c>
+      <c r="O154">
+        <v>11</v>
+      </c>
+      <c r="P154">
+        <v>7</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="T154" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</v>
+      </c>
+      <c r="U154" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44</v>
+      </c>
+      <c r="V154" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37</v>
+      </c>
+      <c r="W154" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29</v>
+      </c>
+      <c r="X154" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22</v>
+      </c>
+      <c r="Y154" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14</v>
+      </c>
+      <c r="Z154" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11</v>
+      </c>
+      <c r="AA154" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB154" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="155" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>56</v>
+      </c>
+      <c r="J155">
+        <v>45</v>
+      </c>
+      <c r="K155">
+        <v>37</v>
+      </c>
+      <c r="L155">
+        <v>30</v>
+      </c>
+      <c r="M155">
+        <v>22</v>
+      </c>
+      <c r="N155">
+        <v>15</v>
+      </c>
+      <c r="O155">
+        <v>11</v>
+      </c>
+      <c r="P155">
+        <v>7</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="T155" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56</v>
+      </c>
+      <c r="U155" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45</v>
+      </c>
+      <c r="V155" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37</v>
+      </c>
+      <c r="W155" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30</v>
+      </c>
+      <c r="X155" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22</v>
+      </c>
+      <c r="Y155" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15</v>
+      </c>
+      <c r="Z155" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11</v>
+      </c>
+      <c r="AA155" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7</v>
+      </c>
+      <c r="AB155" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="156" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>57</v>
+      </c>
+      <c r="J156">
+        <v>46</v>
+      </c>
+      <c r="K156">
+        <v>38</v>
+      </c>
+      <c r="L156">
+        <v>30</v>
+      </c>
+      <c r="M156">
+        <v>22</v>
+      </c>
+      <c r="N156">
+        <v>15</v>
+      </c>
+      <c r="O156">
+        <v>11</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="T156" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57</v>
+      </c>
+      <c r="U156" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46</v>
+      </c>
+      <c r="V156" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38</v>
+      </c>
+      <c r="W156" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30</v>
+      </c>
+      <c r="X156" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22</v>
+      </c>
+      <c r="Y156" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15</v>
+      </c>
+      <c r="Z156" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11</v>
+      </c>
+      <c r="AA156" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0</v>
+      </c>
+      <c r="AB156" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="157" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>58</v>
+      </c>
+      <c r="J157">
+        <v>46</v>
+      </c>
+      <c r="K157">
+        <v>39</v>
+      </c>
+      <c r="L157">
         <v>31</v>
       </c>
-      <c r="M82">
+      <c r="M157">
+        <v>23</v>
+      </c>
+      <c r="N157">
+        <v>15</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="T157" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58</v>
+      </c>
+      <c r="U157" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46</v>
+      </c>
+      <c r="V157" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39</v>
+      </c>
+      <c r="W157" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N82">
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31</v>
+      </c>
+      <c r="X157" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23</v>
+      </c>
+      <c r="Y157" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15</v>
+      </c>
+      <c r="Z157" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0</v>
+      </c>
+      <c r="AA157" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0</v>
+      </c>
+      <c r="AB157" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="158" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>59</v>
+      </c>
+      <c r="J158">
+        <v>47</v>
+      </c>
+      <c r="K158">
+        <v>39</v>
+      </c>
+      <c r="L158">
+        <v>31</v>
+      </c>
+      <c r="M158">
+        <v>23</v>
+      </c>
+      <c r="N158">
+        <v>15</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="T158" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59</v>
+      </c>
+      <c r="U158" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47</v>
+      </c>
+      <c r="V158" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39</v>
+      </c>
+      <c r="W158" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T82" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59</v>
-      </c>
-      <c r="U82" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47</v>
-      </c>
-      <c r="V82" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39</v>
-      </c>
-      <c r="W82" t="str">
-        <f t="shared" si="9"/>
         <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31</v>
       </c>
-      <c r="X82" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0</v>
-      </c>
-      <c r="Y82" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0</v>
-      </c>
-      <c r="Z82" t="str">
-        <f t="shared" si="12"/>
+      <c r="X158" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23</v>
+      </c>
+      <c r="Y158" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15</v>
+      </c>
+      <c r="Z158" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0</v>
       </c>
-      <c r="AA82" t="str">
-        <f t="shared" si="13"/>
+      <c r="AA158" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0</v>
       </c>
-      <c r="AB82" t="str">
-        <f t="shared" si="14"/>
+      <c r="AB158" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
-    <row r="83" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="S83" t="s">
+    <row r="159" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="S159" t="s">
         <v>56</v>
       </c>
-      <c r="T83" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, </v>
-      </c>
-      <c r="U83" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47, </v>
-      </c>
-      <c r="V83" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39, </v>
-      </c>
-      <c r="W83" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31, </v>
-      </c>
-      <c r="X83" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23, 0, </v>
-      </c>
-      <c r="Y83" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> { 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15, 0, </v>
-      </c>
-      <c r="Z83" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0, </v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0, </v>
-      </c>
-      <c r="AB83" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </v>
-      </c>
-    </row>
-    <row r="86" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T90" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T92" t="s">
+      <c r="T159" t="str">
+        <f>T158&amp;" },"</f>
+        <v xml:space="preserve"> { 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59 },</v>
+      </c>
+      <c r="U159" t="str">
+        <f t="shared" ref="U159:AB159" si="24">U158&amp;" },"</f>
+        <v xml:space="preserve"> { 0, 1, 2, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 18, 19, 20, 21, 22, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 42, 43, 44, 45, 46, 46, 47 },</v>
+      </c>
+      <c r="V159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 3, 3, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 11, 12, 13, 13, 14, 15, 15, 16, 17, 17, 18, 19, 19, 20, 21, 21, 22, 23, 23, 24, 25, 25, 26, 27, 27, 28, 29, 29, 30, 31, 31, 32, 33, 33, 34, 35, 35, 36, 37, 37, 38, 39, 39 },</v>
+      </c>
+      <c r="W159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6, 7, 7, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 16, 17, 17, 18, 18, 19, 19, 20, 20, 21, 21, 22, 22, 23, 23, 24, 25, 25, 26, 26, 27, 27, 28, 28, 29, 29, 30, 30, 31, 31 },</v>
+      </c>
+      <c r="X159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 2, 2, 2, 3, 3, 4, 4, 4, 5, 5, 6, 6, 6, 7, 7, 8, 8, 8, 9, 9, 10, 10, 10, 11, 11, 12, 12, 12, 13, 13, 14, 14, 14, 15, 15, 16, 16, 16, 17, 17, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 22, 22, 22, 23, 23 },</v>
+      </c>
+      <c r="Y159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 3, 3, 3, 3, 4, 4, 4, 5, 5, 5, 5, 6, 6, 6, 6, 7, 7, 7, 7, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 15, 15, 15, 15 },</v>
+      </c>
+      <c r="Z159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 0, 0 },</v>
+      </c>
+      <c r="AA159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 0, 0, 0 },</v>
+      </c>
+      <c r="AB159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 },</v>
+      </c>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T161" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T93" t="s">
+    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T162" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="9:28" x14ac:dyDescent="0.25">
-      <c r="T94" t="s">
+    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T163" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T164" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T165" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T168" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T169" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/PartsListESP32Clock.xlsx
+++ b/PartsListESP32Clock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C8D87-BF09-47F1-AA94-6AE6AB58D821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7932849-55D0-47D8-8BCC-7AD216F9B558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{41B2ED1C-8C08-4B2A-A527-B1C849EDAEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>https://smile.amazon.com/gp/product/B08DQQ8CBP/</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t xml:space="preserve"> { 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 },</t>
+  </si>
+  <si>
+    <t>10K Ohm resistor, 1/4 watt</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265</t>
+  </si>
+  <si>
+    <t>0.1 uF electrolytic capacitor</t>
+  </si>
+  <si>
+    <t>100 uF electrolytic capacitor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860010672001/5728608</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ECA-2AM101/245067</t>
   </si>
 </sst>
 </file>
@@ -673,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29A9E47-469B-441B-BC4B-4F95D35E1C9E}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f>"| "&amp;A5&amp;" | $"&amp;TEXT(B5,"0.00")&amp;" | $"&amp;TEXT(C5,"0.00")&amp;" | "&amp;D5&amp;" | "&amp;E5&amp;" |"</f>
         <v>| 0 | $6.00 | $0.00 | ESP32 ESP-32S CP2102 NodeMCU-32S ESP-WROOM-32 WiFi | https://smile.amazon.com/DORHEA-Development-Microcontroller-NodeMCU-32S-ESP-WROOM-32/dp/B086MJGFVV/ |</v>
       </c>
       <c r="J5" s="1">
@@ -901,13 +919,100 @@
         <v>18</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8" si="4">"| "&amp;A8&amp;" | $"&amp;TEXT(B8,"0.00")&amp;" | $"&amp;TEXT(C8,"0.00")&amp;" | "&amp;D8&amp;" | "&amp;E8&amp;" |"</f>
+        <f t="shared" ref="G8:G11" si="4">"| "&amp;A8&amp;" | $"&amp;TEXT(B8,"0.00")&amp;" | $"&amp;TEXT(C8,"0.00")&amp;" | "&amp;D8&amp;" | "&amp;E8&amp;" |"</f>
         <v>| 1 | $0.10 | $0.10 | 220 Ohm resistor, 1/4 watt (optional) | https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT220R/1741346 |</v>
       </c>
       <c r="J8" s="1">
         <v>0.1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9" si="5">J9/K9</f>
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9" si="6">A9*B9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>| 1 | $0.10 | $0.10 | 10K Ohm resistor, 1/4 watt | https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265 |</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B11" si="7">J10/K10</f>
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10" si="8">A10*B10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>| 1 | $0.10 | $0.10 | 0.1 uF electrolytic capacitor | https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860010672001/5728608 |</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ref="B11" si="9">J11/K11</f>
+        <v>0.53</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11" si="10">A11*B11</f>
+        <v>0.53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>| 1 | $0.53 | $0.53 | 100 uF electrolytic capacitor | https://www.digikey.com/en/products/detail/panasonic-electronic-components/ECA-2AM101/245067 |</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
     </row>
@@ -922,9 +1027,12 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{E3BAB0B9-CE51-4BA0-89FD-4B596A712210}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{779703E2-59B3-475E-9C2F-63D23BB576F3}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{1C8C588A-E60D-43AB-AD56-45C43B9F934B}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{CFD1EBA0-D500-4DFE-8134-A59E85C63B37}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{BBD8A739-5643-4B84-95CF-8ABC696BDA3D}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{9D4426D0-FEDC-42AE-984A-B5D2B499A2ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1377,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DE995-FBF8-4304-AE97-4EE9DF4E65CB}">
   <dimension ref="A1:AC169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="T161" sqref="T161:T169"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
